--- a/2-Empirical-Evidence/raw_data/New_York.xlsx
+++ b/2-Empirical-Evidence/raw_data/New_York.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>1990 to 2020</t>
+    <t>1990 to 2024</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -148,6 +148,22 @@
   <si>
     <t>Annual
 2020</t>
+  </si>
+  <si>
+    <t>Annual
+2021</t>
+  </si>
+  <si>
+    <t>Annual
+2022</t>
+  </si>
+  <si>
+    <t>Annual
+2023</t>
+  </si>
+  <si>
+    <t>Annual
+2024</t>
   </si>
   <si>
     <t>LAUCN360010000000003</t>
@@ -1282,10 +1298,22 @@
       <c r="AF4" t="s" s="3">
         <v>34</v>
       </c>
+      <c r="AG4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n" s="10">
         <v>3.0</v>
@@ -1380,10 +1408,20 @@
       <c r="AF5" t="n" s="10">
         <v>6.9</v>
       </c>
+      <c r="AG5" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH5" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI5" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n" s="8">
         <v>4687.0</v>
@@ -1478,10 +1516,20 @@
       <c r="AF6" t="n" s="8">
         <v>11029.0</v>
       </c>
+      <c r="AG6" t="n" s="8">
+        <v>7039.0</v>
+      </c>
+      <c r="AH6" t="n" s="8">
+        <v>4923.0</v>
+      </c>
+      <c r="AI6" t="n" s="8">
+        <v>5280.0</v>
+      </c>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="8">
         <v>153615.0</v>
@@ -1576,10 +1624,20 @@
       <c r="AF7" t="n" s="8">
         <v>148570.0</v>
       </c>
+      <c r="AG7" t="n" s="8">
+        <v>150727.0</v>
+      </c>
+      <c r="AH7" t="n" s="8">
+        <v>153760.0</v>
+      </c>
+      <c r="AI7" t="n" s="8">
+        <v>155345.0</v>
+      </c>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n" s="8">
         <v>158302.0</v>
@@ -1674,10 +1732,20 @@
       <c r="AF8" t="n" s="8">
         <v>159599.0</v>
       </c>
+      <c r="AG8" t="n" s="8">
+        <v>157766.0</v>
+      </c>
+      <c r="AH8" t="n" s="8">
+        <v>158683.0</v>
+      </c>
+      <c r="AI8" t="n" s="8">
+        <v>160625.0</v>
+      </c>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="10">
         <v>6.6</v>
@@ -1772,10 +1840,20 @@
       <c r="AF9" t="n" s="10">
         <v>7.8</v>
       </c>
+      <c r="AG9" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AH9" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI9" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n" s="8">
         <v>1482.0</v>
@@ -1870,10 +1948,20 @@
       <c r="AF10" t="n" s="8">
         <v>1509.0</v>
       </c>
+      <c r="AG10" t="n" s="8">
+        <v>972.0</v>
+      </c>
+      <c r="AH10" t="n" s="8">
+        <v>786.0</v>
+      </c>
+      <c r="AI10" t="n" s="8">
+        <v>828.0</v>
+      </c>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n" s="8">
         <v>20971.0</v>
@@ -1968,10 +2056,20 @@
       <c r="AF11" t="n" s="8">
         <v>17943.0</v>
       </c>
+      <c r="AG11" t="n" s="8">
+        <v>18191.0</v>
+      </c>
+      <c r="AH11" t="n" s="8">
+        <v>18242.0</v>
+      </c>
+      <c r="AI11" t="n" s="8">
+        <v>18571.0</v>
+      </c>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n" s="8">
         <v>22453.0</v>
@@ -2066,10 +2164,20 @@
       <c r="AF12" t="n" s="8">
         <v>19452.0</v>
       </c>
+      <c r="AG12" t="n" s="8">
+        <v>19163.0</v>
+      </c>
+      <c r="AH12" t="n" s="8">
+        <v>19028.0</v>
+      </c>
+      <c r="AI12" t="n" s="8">
+        <v>19399.0</v>
+      </c>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="10">
         <v>8.4</v>
@@ -2164,10 +2272,20 @@
       <c r="AF13" t="n" s="10">
         <v>16.0</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>13.9</v>
+      </c>
+      <c r="AH13" t="n" s="10">
+        <v>7.9</v>
+      </c>
+      <c r="AI13" t="n" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n" s="8">
         <v>38836.0</v>
@@ -2262,10 +2380,20 @@
       <c r="AF14" t="n" s="8">
         <v>98212.0</v>
       </c>
+      <c r="AG14" t="n" s="8">
+        <v>85175.0</v>
+      </c>
+      <c r="AH14" t="n" s="8">
+        <v>47570.0</v>
+      </c>
+      <c r="AI14" t="n" s="8">
+        <v>41501.0</v>
+      </c>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n" s="8">
         <v>422257.0</v>
@@ -2360,10 +2488,20 @@
       <c r="AF15" t="n" s="8">
         <v>514858.0</v>
       </c>
+      <c r="AG15" t="n" s="8">
+        <v>528957.0</v>
+      </c>
+      <c r="AH15" t="n" s="8">
+        <v>555806.0</v>
+      </c>
+      <c r="AI15" t="n" s="8">
+        <v>566410.0</v>
+      </c>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n" s="8">
         <v>461093.0</v>
@@ -2458,10 +2596,20 @@
       <c r="AF16" t="n" s="8">
         <v>613070.0</v>
       </c>
+      <c r="AG16" t="n" s="8">
+        <v>614132.0</v>
+      </c>
+      <c r="AH16" t="n" s="8">
+        <v>603376.0</v>
+      </c>
+      <c r="AI16" t="n" s="8">
+        <v>607911.0</v>
+      </c>
+      <c r="AJ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n" s="10">
         <v>4.2</v>
@@ -2556,10 +2704,20 @@
       <c r="AF17" t="n" s="10">
         <v>8.3</v>
       </c>
+      <c r="AG17" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AH17" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI17" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" t="n" s="8">
         <v>4450.0</v>
@@ -2654,10 +2812,20 @@
       <c r="AF18" t="n" s="8">
         <v>6974.0</v>
       </c>
+      <c r="AG18" t="n" s="8">
+        <v>4347.0</v>
+      </c>
+      <c r="AH18" t="n" s="8">
+        <v>3166.0</v>
+      </c>
+      <c r="AI18" t="n" s="8">
+        <v>3265.0</v>
+      </c>
+      <c r="AJ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n" s="8">
         <v>100947.0</v>
@@ -2752,10 +2920,20 @@
       <c r="AF19" t="n" s="8">
         <v>76645.0</v>
       </c>
+      <c r="AG19" t="n" s="8">
+        <v>77785.0</v>
+      </c>
+      <c r="AH19" t="n" s="8">
+        <v>78855.0</v>
+      </c>
+      <c r="AI19" t="n" s="8">
+        <v>79656.0</v>
+      </c>
+      <c r="AJ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="n" s="8">
         <v>105397.0</v>
@@ -2850,10 +3028,20 @@
       <c r="AF20" t="n" s="8">
         <v>83619.0</v>
       </c>
+      <c r="AG20" t="n" s="8">
+        <v>82132.0</v>
+      </c>
+      <c r="AH20" t="n" s="8">
+        <v>82021.0</v>
+      </c>
+      <c r="AI20" t="n" s="8">
+        <v>82921.0</v>
+      </c>
+      <c r="AJ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n" s="10">
         <v>6.4</v>
@@ -2948,10 +3136,20 @@
       <c r="AF21" t="n" s="10">
         <v>9.1</v>
       </c>
+      <c r="AG21" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH21" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI21" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" t="n" s="8">
         <v>2508.0</v>
@@ -3046,10 +3244,20 @@
       <c r="AF22" t="n" s="8">
         <v>3077.0</v>
       </c>
+      <c r="AG22" t="n" s="8">
+        <v>1774.0</v>
+      </c>
+      <c r="AH22" t="n" s="8">
+        <v>1348.0</v>
+      </c>
+      <c r="AI22" t="n" s="8">
+        <v>1412.0</v>
+      </c>
+      <c r="AJ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" t="n" s="8">
         <v>36607.0</v>
@@ -3144,10 +3352,20 @@
       <c r="AF23" t="n" s="8">
         <v>30661.0</v>
       </c>
+      <c r="AG23" t="n" s="8">
+        <v>31353.0</v>
+      </c>
+      <c r="AH23" t="n" s="8">
+        <v>31333.0</v>
+      </c>
+      <c r="AI23" t="n" s="8">
+        <v>31684.0</v>
+      </c>
+      <c r="AJ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="7">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" t="n" s="8">
         <v>39115.0</v>
@@ -3242,10 +3460,20 @@
       <c r="AF24" t="n" s="8">
         <v>33738.0</v>
       </c>
+      <c r="AG24" t="n" s="8">
+        <v>33127.0</v>
+      </c>
+      <c r="AH24" t="n" s="8">
+        <v>32681.0</v>
+      </c>
+      <c r="AI24" t="n" s="8">
+        <v>33096.0</v>
+      </c>
+      <c r="AJ24"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B25" t="n" s="10">
         <v>6.1</v>
@@ -3340,10 +3568,20 @@
       <c r="AF25" t="n" s="10">
         <v>7.6</v>
       </c>
+      <c r="AG25" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH25" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI25" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ25"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" t="n" s="8">
         <v>2399.0</v>
@@ -3438,10 +3676,20 @@
       <c r="AF26" t="n" s="8">
         <v>2748.0</v>
       </c>
+      <c r="AG26" t="n" s="8">
+        <v>1697.0</v>
+      </c>
+      <c r="AH26" t="n" s="8">
+        <v>1241.0</v>
+      </c>
+      <c r="AI26" t="n" s="8">
+        <v>1286.0</v>
+      </c>
+      <c r="AJ26"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" t="n" s="8">
         <v>36857.0</v>
@@ -3536,10 +3784,20 @@
       <c r="AF27" t="n" s="8">
         <v>33395.0</v>
       </c>
+      <c r="AG27" t="n" s="8">
+        <v>33785.0</v>
+      </c>
+      <c r="AH27" t="n" s="8">
+        <v>34112.0</v>
+      </c>
+      <c r="AI27" t="n" s="8">
+        <v>34380.0</v>
+      </c>
+      <c r="AJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B28" t="n" s="8">
         <v>39256.0</v>
@@ -3634,10 +3892,20 @@
       <c r="AF28" t="n" s="8">
         <v>36143.0</v>
       </c>
+      <c r="AG28" t="n" s="8">
+        <v>35482.0</v>
+      </c>
+      <c r="AH28" t="n" s="8">
+        <v>35353.0</v>
+      </c>
+      <c r="AI28" t="n" s="8">
+        <v>35666.0</v>
+      </c>
+      <c r="AJ28"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" t="n" s="10">
         <v>5.8</v>
@@ -3732,10 +4000,20 @@
       <c r="AF29" t="n" s="10">
         <v>8.5</v>
       </c>
+      <c r="AG29" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AH29" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AI29" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ29"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n" s="8">
         <v>3932.0</v>
@@ -3830,10 +4108,20 @@
       <c r="AF30" t="n" s="8">
         <v>4613.0</v>
       </c>
+      <c r="AG30" t="n" s="8">
+        <v>2990.0</v>
+      </c>
+      <c r="AH30" t="n" s="8">
+        <v>2101.0</v>
+      </c>
+      <c r="AI30" t="n" s="8">
+        <v>2274.0</v>
+      </c>
+      <c r="AJ30"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="7">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" t="n" s="8">
         <v>64346.0</v>
@@ -3928,10 +4216,20 @@
       <c r="AF31" t="n" s="8">
         <v>49387.0</v>
       </c>
+      <c r="AG31" t="n" s="8">
+        <v>50354.0</v>
+      </c>
+      <c r="AH31" t="n" s="8">
+        <v>50751.0</v>
+      </c>
+      <c r="AI31" t="n" s="8">
+        <v>50944.0</v>
+      </c>
+      <c r="AJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" t="n" s="8">
         <v>68278.0</v>
@@ -4026,10 +4324,20 @@
       <c r="AF32" t="n" s="8">
         <v>54000.0</v>
       </c>
+      <c r="AG32" t="n" s="8">
+        <v>53344.0</v>
+      </c>
+      <c r="AH32" t="n" s="8">
+        <v>52852.0</v>
+      </c>
+      <c r="AI32" t="n" s="8">
+        <v>53218.0</v>
+      </c>
+      <c r="AJ32"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n" s="10">
         <v>4.8</v>
@@ -4124,10 +4432,20 @@
       <c r="AF33" t="n" s="10">
         <v>8.4</v>
       </c>
+      <c r="AG33" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AH33" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI33" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ33"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n" s="8">
         <v>2136.0</v>
@@ -4222,10 +4540,20 @@
       <c r="AF34" t="n" s="8">
         <v>3037.0</v>
       </c>
+      <c r="AG34" t="n" s="8">
+        <v>1845.0</v>
+      </c>
+      <c r="AH34" t="n" s="8">
+        <v>1297.0</v>
+      </c>
+      <c r="AI34" t="n" s="8">
+        <v>1384.0</v>
+      </c>
+      <c r="AJ34"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" t="n" s="8">
         <v>42052.0</v>
@@ -4320,10 +4648,20 @@
       <c r="AF35" t="n" s="8">
         <v>32996.0</v>
       </c>
+      <c r="AG35" t="n" s="8">
+        <v>33005.0</v>
+      </c>
+      <c r="AH35" t="n" s="8">
+        <v>33313.0</v>
+      </c>
+      <c r="AI35" t="n" s="8">
+        <v>33235.0</v>
+      </c>
+      <c r="AJ35"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" t="n" s="8">
         <v>44188.0</v>
@@ -4418,10 +4756,20 @@
       <c r="AF36" t="n" s="8">
         <v>36033.0</v>
       </c>
+      <c r="AG36" t="n" s="8">
+        <v>34850.0</v>
+      </c>
+      <c r="AH36" t="n" s="8">
+        <v>34610.0</v>
+      </c>
+      <c r="AI36" t="n" s="8">
+        <v>34619.0</v>
+      </c>
+      <c r="AJ36"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B37" t="n" s="10">
         <v>5.4</v>
@@ -4516,10 +4864,20 @@
       <c r="AF37" t="n" s="10">
         <v>6.6</v>
       </c>
+      <c r="AG37" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH37" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI37" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ37"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B38" t="n" s="8">
         <v>1362.0</v>
@@ -4614,10 +4972,20 @@
       <c r="AF38" t="n" s="8">
         <v>1473.0</v>
       </c>
+      <c r="AG38" t="n" s="8">
+        <v>976.0</v>
+      </c>
+      <c r="AH38" t="n" s="8">
+        <v>730.0</v>
+      </c>
+      <c r="AI38" t="n" s="8">
+        <v>764.0</v>
+      </c>
+      <c r="AJ38"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B39" t="n" s="8">
         <v>23892.0</v>
@@ -4712,10 +5080,20 @@
       <c r="AF39" t="n" s="8">
         <v>20716.0</v>
       </c>
+      <c r="AG39" t="n" s="8">
+        <v>20967.0</v>
+      </c>
+      <c r="AH39" t="n" s="8">
+        <v>21068.0</v>
+      </c>
+      <c r="AI39" t="n" s="8">
+        <v>21208.0</v>
+      </c>
+      <c r="AJ39"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="7">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B40" t="n" s="8">
         <v>25254.0</v>
@@ -4810,10 +5188,20 @@
       <c r="AF40" t="n" s="8">
         <v>22189.0</v>
       </c>
+      <c r="AG40" t="n" s="8">
+        <v>21943.0</v>
+      </c>
+      <c r="AH40" t="n" s="8">
+        <v>21798.0</v>
+      </c>
+      <c r="AI40" t="n" s="8">
+        <v>21972.0</v>
+      </c>
+      <c r="AJ40"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B41" t="n" s="10">
         <v>6.0</v>
@@ -4908,10 +5296,20 @@
       <c r="AF41" t="n" s="10">
         <v>7.7</v>
       </c>
+      <c r="AG41" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AH41" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI41" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ41"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="7">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B42" t="n" s="8">
         <v>2364.0</v>
@@ -5006,10 +5404,20 @@
       <c r="AF42" t="n" s="8">
         <v>2776.0</v>
       </c>
+      <c r="AG42" t="n" s="8">
+        <v>1669.0</v>
+      </c>
+      <c r="AH42" t="n" s="8">
+        <v>1205.0</v>
+      </c>
+      <c r="AI42" t="n" s="8">
+        <v>1260.0</v>
+      </c>
+      <c r="AJ42"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B43" t="n" s="8">
         <v>36967.0</v>
@@ -5104,10 +5512,20 @@
       <c r="AF43" t="n" s="8">
         <v>33432.0</v>
       </c>
+      <c r="AG43" t="n" s="8">
+        <v>33823.0</v>
+      </c>
+      <c r="AH43" t="n" s="8">
+        <v>34304.0</v>
+      </c>
+      <c r="AI43" t="n" s="8">
+        <v>34546.0</v>
+      </c>
+      <c r="AJ43"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B44" t="n" s="8">
         <v>39331.0</v>
@@ -5202,10 +5620,20 @@
       <c r="AF44" t="n" s="8">
         <v>36208.0</v>
       </c>
+      <c r="AG44" t="n" s="8">
+        <v>35492.0</v>
+      </c>
+      <c r="AH44" t="n" s="8">
+        <v>35509.0</v>
+      </c>
+      <c r="AI44" t="n" s="8">
+        <v>35806.0</v>
+      </c>
+      <c r="AJ44"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B45" t="n" s="10">
         <v>3.2</v>
@@ -5300,10 +5728,20 @@
       <c r="AF45" t="n" s="10">
         <v>6.0</v>
       </c>
+      <c r="AG45" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AH45" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI45" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ45"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="7">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B46" t="n" s="8">
         <v>994.0</v>
@@ -5398,10 +5836,20 @@
       <c r="AF46" t="n" s="8">
         <v>1846.0</v>
       </c>
+      <c r="AG46" t="n" s="8">
+        <v>1182.0</v>
+      </c>
+      <c r="AH46" t="n" s="8">
+        <v>852.0</v>
+      </c>
+      <c r="AI46" t="n" s="8">
+        <v>915.0</v>
+      </c>
+      <c r="AJ46"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="7">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B47" t="n" s="8">
         <v>30369.0</v>
@@ -5496,10 +5944,20 @@
       <c r="AF47" t="n" s="8">
         <v>29126.0</v>
       </c>
+      <c r="AG47" t="n" s="8">
+        <v>29281.0</v>
+      </c>
+      <c r="AH47" t="n" s="8">
+        <v>29549.0</v>
+      </c>
+      <c r="AI47" t="n" s="8">
+        <v>29755.0</v>
+      </c>
+      <c r="AJ47"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="7">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B48" t="n" s="8">
         <v>31363.0</v>
@@ -5594,10 +6052,20 @@
       <c r="AF48" t="n" s="8">
         <v>30972.0</v>
       </c>
+      <c r="AG48" t="n" s="8">
+        <v>30463.0</v>
+      </c>
+      <c r="AH48" t="n" s="8">
+        <v>30401.0</v>
+      </c>
+      <c r="AI48" t="n" s="8">
+        <v>30670.0</v>
+      </c>
+      <c r="AJ48"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="7">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B49" t="n" s="10">
         <v>6.3</v>
@@ -5692,10 +6160,20 @@
       <c r="AF49" t="n" s="10">
         <v>7.7</v>
       </c>
+      <c r="AG49" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AH49" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI49" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ49"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="7">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B50" t="n" s="8">
         <v>1567.0</v>
@@ -5790,10 +6268,20 @@
       <c r="AF50" t="n" s="8">
         <v>1761.0</v>
       </c>
+      <c r="AG50" t="n" s="8">
+        <v>1148.0</v>
+      </c>
+      <c r="AH50" t="n" s="8">
+        <v>873.0</v>
+      </c>
+      <c r="AI50" t="n" s="8">
+        <v>953.0</v>
+      </c>
+      <c r="AJ50"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="7">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B51" t="n" s="8">
         <v>23126.0</v>
@@ -5888,10 +6376,20 @@
       <c r="AF51" t="n" s="8">
         <v>21093.0</v>
       </c>
+      <c r="AG51" t="n" s="8">
+        <v>21318.0</v>
+      </c>
+      <c r="AH51" t="n" s="8">
+        <v>21678.0</v>
+      </c>
+      <c r="AI51" t="n" s="8">
+        <v>21473.0</v>
+      </c>
+      <c r="AJ51"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B52" t="n" s="8">
         <v>24693.0</v>
@@ -5986,10 +6484,20 @@
       <c r="AF52" t="n" s="8">
         <v>22854.0</v>
       </c>
+      <c r="AG52" t="n" s="8">
+        <v>22466.0</v>
+      </c>
+      <c r="AH52" t="n" s="8">
+        <v>22551.0</v>
+      </c>
+      <c r="AI52" t="n" s="8">
+        <v>22426.0</v>
+      </c>
+      <c r="AJ52"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="7">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B53" t="n" s="10">
         <v>5.2</v>
@@ -6084,10 +6592,20 @@
       <c r="AF53" t="n" s="10">
         <v>7.0</v>
       </c>
+      <c r="AG53" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH53" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI53" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ53"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="7">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B54" t="n" s="8">
         <v>1120.0</v>
@@ -6182,10 +6700,20 @@
       <c r="AF54" t="n" s="8">
         <v>1326.0</v>
       </c>
+      <c r="AG54" t="n" s="8">
+        <v>896.0</v>
+      </c>
+      <c r="AH54" t="n" s="8">
+        <v>693.0</v>
+      </c>
+      <c r="AI54" t="n" s="8">
+        <v>753.0</v>
+      </c>
+      <c r="AJ54"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="7">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B55" t="n" s="8">
         <v>20623.0</v>
@@ -6280,10 +6808,20 @@
       <c r="AF55" t="n" s="8">
         <v>17692.0</v>
       </c>
+      <c r="AG55" t="n" s="8">
+        <v>17850.0</v>
+      </c>
+      <c r="AH55" t="n" s="8">
+        <v>17726.0</v>
+      </c>
+      <c r="AI55" t="n" s="8">
+        <v>17916.0</v>
+      </c>
+      <c r="AJ55"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="7">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B56" t="n" s="8">
         <v>21743.0</v>
@@ -6378,10 +6916,20 @@
       <c r="AF56" t="n" s="8">
         <v>19018.0</v>
       </c>
+      <c r="AG56" t="n" s="8">
+        <v>18746.0</v>
+      </c>
+      <c r="AH56" t="n" s="8">
+        <v>18419.0</v>
+      </c>
+      <c r="AI56" t="n" s="8">
+        <v>18669.0</v>
+      </c>
+      <c r="AJ56"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B57" t="n" s="10">
         <v>2.9</v>
@@ -6476,10 +7024,20 @@
       <c r="AF57" t="n" s="10">
         <v>7.3</v>
       </c>
+      <c r="AG57" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH57" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI57" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ57"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B58" t="n" s="8">
         <v>3947.0</v>
@@ -6574,10 +7132,20 @@
       <c r="AF58" t="n" s="8">
         <v>10653.0</v>
       </c>
+      <c r="AG58" t="n" s="8">
+        <v>6479.0</v>
+      </c>
+      <c r="AH58" t="n" s="8">
+        <v>4527.0</v>
+      </c>
+      <c r="AI58" t="n" s="8">
+        <v>4800.0</v>
+      </c>
+      <c r="AJ58"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="7">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B59" t="n" s="8">
         <v>130032.0</v>
@@ -6672,10 +7240,20 @@
       <c r="AF59" t="n" s="8">
         <v>134383.0</v>
       </c>
+      <c r="AG59" t="n" s="8">
+        <v>137228.0</v>
+      </c>
+      <c r="AH59" t="n" s="8">
+        <v>140829.0</v>
+      </c>
+      <c r="AI59" t="n" s="8">
+        <v>142236.0</v>
+      </c>
+      <c r="AJ59"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="7">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B60" t="n" s="8">
         <v>133979.0</v>
@@ -6770,10 +7348,20 @@
       <c r="AF60" t="n" s="8">
         <v>145036.0</v>
       </c>
+      <c r="AG60" t="n" s="8">
+        <v>143707.0</v>
+      </c>
+      <c r="AH60" t="n" s="8">
+        <v>145356.0</v>
+      </c>
+      <c r="AI60" t="n" s="8">
+        <v>147036.0</v>
+      </c>
+      <c r="AJ60"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="7">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B61" t="n" s="10">
         <v>5.2</v>
@@ -6868,10 +7456,20 @@
       <c r="AF61" t="n" s="10">
         <v>9.2</v>
       </c>
+      <c r="AG61" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AH61" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI61" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ61"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B62" t="n" s="8">
         <v>25048.0</v>
@@ -6966,10 +7564,20 @@
       <c r="AF62" t="n" s="8">
         <v>40879.0</v>
       </c>
+      <c r="AG62" t="n" s="8">
+        <v>24082.0</v>
+      </c>
+      <c r="AH62" t="n" s="8">
+        <v>16233.0</v>
+      </c>
+      <c r="AI62" t="n" s="8">
+        <v>17095.0</v>
+      </c>
+      <c r="AJ62"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="7">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B63" t="n" s="8">
         <v>454449.0</v>
@@ -7064,10 +7672,20 @@
       <c r="AF63" t="n" s="8">
         <v>405707.0</v>
       </c>
+      <c r="AG63" t="n" s="8">
+        <v>416660.0</v>
+      </c>
+      <c r="AH63" t="n" s="8">
+        <v>426888.0</v>
+      </c>
+      <c r="AI63" t="n" s="8">
+        <v>432741.0</v>
+      </c>
+      <c r="AJ63"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="7">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B64" t="n" s="8">
         <v>479497.0</v>
@@ -7162,10 +7780,20 @@
       <c r="AF64" t="n" s="8">
         <v>446586.0</v>
       </c>
+      <c r="AG64" t="n" s="8">
+        <v>440742.0</v>
+      </c>
+      <c r="AH64" t="n" s="8">
+        <v>443121.0</v>
+      </c>
+      <c r="AI64" t="n" s="8">
+        <v>449836.0</v>
+      </c>
+      <c r="AJ64"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="7">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B65" t="n" s="10">
         <v>8.0</v>
@@ -7260,10 +7888,20 @@
       <c r="AF65" t="n" s="10">
         <v>7.9</v>
       </c>
+      <c r="AG65" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH65" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI65" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ65"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="7">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B66" t="n" s="8">
         <v>1456.0</v>
@@ -7358,10 +7996,20 @@
       <c r="AF66" t="n" s="8">
         <v>1332.0</v>
       </c>
+      <c r="AG66" t="n" s="8">
+        <v>809.0</v>
+      </c>
+      <c r="AH66" t="n" s="8">
+        <v>602.0</v>
+      </c>
+      <c r="AI66" t="n" s="8">
+        <v>649.0</v>
+      </c>
+      <c r="AJ66"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="7">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B67" t="n" s="8">
         <v>16677.0</v>
@@ -7456,10 +8104,20 @@
       <c r="AF67" t="n" s="8">
         <v>15574.0</v>
       </c>
+      <c r="AG67" t="n" s="8">
+        <v>15977.0</v>
+      </c>
+      <c r="AH67" t="n" s="8">
+        <v>15937.0</v>
+      </c>
+      <c r="AI67" t="n" s="8">
+        <v>16371.0</v>
+      </c>
+      <c r="AJ67"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="7">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B68" t="n" s="8">
         <v>18133.0</v>
@@ -7554,10 +8212,20 @@
       <c r="AF68" t="n" s="8">
         <v>16906.0</v>
       </c>
+      <c r="AG68" t="n" s="8">
+        <v>16786.0</v>
+      </c>
+      <c r="AH68" t="n" s="8">
+        <v>16539.0</v>
+      </c>
+      <c r="AI68" t="n" s="8">
+        <v>17020.0</v>
+      </c>
+      <c r="AJ68"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="7">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B69" t="n" s="10">
         <v>8.7</v>
@@ -7652,10 +8320,20 @@
       <c r="AF69" t="n" s="10">
         <v>8.0</v>
       </c>
+      <c r="AG69" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH69" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI69" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ69"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="7">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B70" t="n" s="8">
         <v>1789.0</v>
@@ -7750,10 +8428,20 @@
       <c r="AF70" t="n" s="8">
         <v>1552.0</v>
       </c>
+      <c r="AG70" t="n" s="8">
+        <v>926.0</v>
+      </c>
+      <c r="AH70" t="n" s="8">
+        <v>692.0</v>
+      </c>
+      <c r="AI70" t="n" s="8">
+        <v>729.0</v>
+      </c>
+      <c r="AJ70"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="7">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B71" t="n" s="8">
         <v>18878.0</v>
@@ -7848,10 +8536,20 @@
       <c r="AF71" t="n" s="8">
         <v>17955.0</v>
       </c>
+      <c r="AG71" t="n" s="8">
+        <v>18304.0</v>
+      </c>
+      <c r="AH71" t="n" s="8">
+        <v>18184.0</v>
+      </c>
+      <c r="AI71" t="n" s="8">
+        <v>18377.0</v>
+      </c>
+      <c r="AJ71"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="7">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B72" t="n" s="8">
         <v>20667.0</v>
@@ -7946,10 +8644,20 @@
       <c r="AF72" t="n" s="8">
         <v>19507.0</v>
       </c>
+      <c r="AG72" t="n" s="8">
+        <v>19230.0</v>
+      </c>
+      <c r="AH72" t="n" s="8">
+        <v>18876.0</v>
+      </c>
+      <c r="AI72" t="n" s="8">
+        <v>19106.0</v>
+      </c>
+      <c r="AJ72"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="7">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B73" t="n" s="10">
         <v>8.6</v>
@@ -8044,10 +8752,20 @@
       <c r="AF73" t="n" s="10">
         <v>8.3</v>
       </c>
+      <c r="AG73" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AH73" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AI73" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ73"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="7">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B74" t="n" s="8">
         <v>2304.0</v>
@@ -8142,10 +8860,20 @@
       <c r="AF74" t="n" s="8">
         <v>1900.0</v>
       </c>
+      <c r="AG74" t="n" s="8">
+        <v>1254.0</v>
+      </c>
+      <c r="AH74" t="n" s="8">
+        <v>903.0</v>
+      </c>
+      <c r="AI74" t="n" s="8">
+        <v>986.0</v>
+      </c>
+      <c r="AJ74"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="7">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B75" t="n" s="8">
         <v>24475.0</v>
@@ -8240,10 +8968,20 @@
       <c r="AF75" t="n" s="8">
         <v>21075.0</v>
       </c>
+      <c r="AG75" t="n" s="8">
+        <v>21200.0</v>
+      </c>
+      <c r="AH75" t="n" s="8">
+        <v>21450.0</v>
+      </c>
+      <c r="AI75" t="n" s="8">
+        <v>21591.0</v>
+      </c>
+      <c r="AJ75"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="7">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B76" t="n" s="8">
         <v>26779.0</v>
@@ -8338,10 +9076,20 @@
       <c r="AF76" t="n" s="8">
         <v>22975.0</v>
       </c>
+      <c r="AG76" t="n" s="8">
+        <v>22454.0</v>
+      </c>
+      <c r="AH76" t="n" s="8">
+        <v>22353.0</v>
+      </c>
+      <c r="AI76" t="n" s="8">
+        <v>22577.0</v>
+      </c>
+      <c r="AJ76"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="7">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B77" t="n" s="10">
         <v>5.2</v>
@@ -8436,10 +9184,20 @@
       <c r="AF77" t="n" s="10">
         <v>7.1</v>
       </c>
+      <c r="AG77" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH77" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI77" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ77"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="7">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B78" t="n" s="8">
         <v>1623.0</v>
@@ -8534,10 +9292,20 @@
       <c r="AF78" t="n" s="8">
         <v>2097.0</v>
       </c>
+      <c r="AG78" t="n" s="8">
+        <v>1277.0</v>
+      </c>
+      <c r="AH78" t="n" s="8">
+        <v>945.0</v>
+      </c>
+      <c r="AI78" t="n" s="8">
+        <v>981.0</v>
+      </c>
+      <c r="AJ78"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="7">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B79" t="n" s="8">
         <v>29747.0</v>
@@ -8632,10 +9400,20 @@
       <c r="AF79" t="n" s="8">
         <v>27513.0</v>
       </c>
+      <c r="AG79" t="n" s="8">
+        <v>28194.0</v>
+      </c>
+      <c r="AH79" t="n" s="8">
+        <v>28621.0</v>
+      </c>
+      <c r="AI79" t="n" s="8">
+        <v>28808.0</v>
+      </c>
+      <c r="AJ79"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="7">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B80" t="n" s="8">
         <v>31370.0</v>
@@ -8730,10 +9508,20 @@
       <c r="AF80" t="n" s="8">
         <v>29610.0</v>
       </c>
+      <c r="AG80" t="n" s="8">
+        <v>29471.0</v>
+      </c>
+      <c r="AH80" t="n" s="8">
+        <v>29566.0</v>
+      </c>
+      <c r="AI80" t="n" s="8">
+        <v>29789.0</v>
+      </c>
+      <c r="AJ80"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="7">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B81" t="n" s="10">
         <v>4.9</v>
@@ -8828,10 +9616,20 @@
       <c r="AF81" t="n" s="10">
         <v>8.0</v>
       </c>
+      <c r="AG81" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AH81" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI81" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ81"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="7">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B82" t="n" s="8">
         <v>1032.0</v>
@@ -8926,10 +9724,20 @@
       <c r="AF82" t="n" s="8">
         <v>1648.0</v>
       </c>
+      <c r="AG82" t="n" s="8">
+        <v>1027.0</v>
+      </c>
+      <c r="AH82" t="n" s="8">
+        <v>730.0</v>
+      </c>
+      <c r="AI82" t="n" s="8">
+        <v>786.0</v>
+      </c>
+      <c r="AJ82"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="7">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B83" t="n" s="8">
         <v>20059.0</v>
@@ -9024,10 +9832,20 @@
       <c r="AF83" t="n" s="8">
         <v>18984.0</v>
       </c>
+      <c r="AG83" t="n" s="8">
+        <v>19349.0</v>
+      </c>
+      <c r="AH83" t="n" s="8">
+        <v>19516.0</v>
+      </c>
+      <c r="AI83" t="n" s="8">
+        <v>19739.0</v>
+      </c>
+      <c r="AJ83"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="7">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B84" t="n" s="8">
         <v>21091.0</v>
@@ -9122,10 +9940,20 @@
       <c r="AF84" t="n" s="8">
         <v>20632.0</v>
       </c>
+      <c r="AG84" t="n" s="8">
+        <v>20376.0</v>
+      </c>
+      <c r="AH84" t="n" s="8">
+        <v>20246.0</v>
+      </c>
+      <c r="AI84" t="n" s="8">
+        <v>20525.0</v>
+      </c>
+      <c r="AJ84"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="7">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B85" t="n" s="10">
         <v>9.0</v>
@@ -9220,10 +10048,20 @@
       <c r="AF85" t="n" s="10">
         <v>7.7</v>
       </c>
+      <c r="AG85" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH85" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AI85" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AJ85"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="7">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B86" t="n" s="8">
         <v>247.0</v>
@@ -9318,10 +10156,20 @@
       <c r="AF86" t="n" s="8">
         <v>170.0</v>
       </c>
+      <c r="AG86" t="n" s="8">
+        <v>101.0</v>
+      </c>
+      <c r="AH86" t="n" s="8">
+        <v>96.0</v>
+      </c>
+      <c r="AI86" t="n" s="8">
+        <v>112.0</v>
+      </c>
+      <c r="AJ86"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="7">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B87" t="n" s="8">
         <v>2512.0</v>
@@ -9416,10 +10264,20 @@
       <c r="AF87" t="n" s="8">
         <v>2029.0</v>
       </c>
+      <c r="AG87" t="n" s="8">
+        <v>2111.0</v>
+      </c>
+      <c r="AH87" t="n" s="8">
+        <v>2090.0</v>
+      </c>
+      <c r="AI87" t="n" s="8">
+        <v>2130.0</v>
+      </c>
+      <c r="AJ87"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="7">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B88" t="n" s="8">
         <v>2759.0</v>
@@ -9514,10 +10372,20 @@
       <c r="AF88" t="n" s="8">
         <v>2199.0</v>
       </c>
+      <c r="AG88" t="n" s="8">
+        <v>2212.0</v>
+      </c>
+      <c r="AH88" t="n" s="8">
+        <v>2186.0</v>
+      </c>
+      <c r="AI88" t="n" s="8">
+        <v>2242.0</v>
+      </c>
+      <c r="AJ88"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="7">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B89" t="n" s="10">
         <v>6.2</v>
@@ -9612,10 +10480,20 @@
       <c r="AF89" t="n" s="10">
         <v>7.9</v>
       </c>
+      <c r="AG89" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AH89" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AI89" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AJ89"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="7">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B90" t="n" s="8">
         <v>1871.0</v>
@@ -9710,10 +10588,20 @@
       <c r="AF90" t="n" s="8">
         <v>2214.0</v>
       </c>
+      <c r="AG90" t="n" s="8">
+        <v>1618.0</v>
+      </c>
+      <c r="AH90" t="n" s="8">
+        <v>1089.0</v>
+      </c>
+      <c r="AI90" t="n" s="8">
+        <v>1119.0</v>
+      </c>
+      <c r="AJ90"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="7">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B91" t="n" s="8">
         <v>28462.0</v>
@@ -9808,10 +10696,20 @@
       <c r="AF91" t="n" s="8">
         <v>25851.0</v>
       </c>
+      <c r="AG91" t="n" s="8">
+        <v>25967.0</v>
+      </c>
+      <c r="AH91" t="n" s="8">
+        <v>26251.0</v>
+      </c>
+      <c r="AI91" t="n" s="8">
+        <v>26351.0</v>
+      </c>
+      <c r="AJ91"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="7">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B92" t="n" s="8">
         <v>30333.0</v>
@@ -9906,10 +10804,20 @@
       <c r="AF92" t="n" s="8">
         <v>28065.0</v>
       </c>
+      <c r="AG92" t="n" s="8">
+        <v>27585.0</v>
+      </c>
+      <c r="AH92" t="n" s="8">
+        <v>27340.0</v>
+      </c>
+      <c r="AI92" t="n" s="8">
+        <v>27470.0</v>
+      </c>
+      <c r="AJ92"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="7">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B93" t="n" s="10">
         <v>8.7</v>
@@ -10004,10 +10912,20 @@
       <c r="AF93" t="n" s="10">
         <v>8.4</v>
       </c>
+      <c r="AG93" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AH93" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI93" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ93"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="7">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B94" t="n" s="8">
         <v>4098.0</v>
@@ -10102,10 +11020,20 @@
       <c r="AF94" t="n" s="8">
         <v>3720.0</v>
       </c>
+      <c r="AG94" t="n" s="8">
+        <v>2256.0</v>
+      </c>
+      <c r="AH94" t="n" s="8">
+        <v>1808.0</v>
+      </c>
+      <c r="AI94" t="n" s="8">
+        <v>1929.0</v>
+      </c>
+      <c r="AJ94"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="7">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B95" t="n" s="8">
         <v>42992.0</v>
@@ -10200,10 +11128,20 @@
       <c r="AF95" t="n" s="8">
         <v>40513.0</v>
       </c>
+      <c r="AG95" t="n" s="8">
+        <v>41648.0</v>
+      </c>
+      <c r="AH95" t="n" s="8">
+        <v>42182.0</v>
+      </c>
+      <c r="AI95" t="n" s="8">
+        <v>42388.0</v>
+      </c>
+      <c r="AJ95"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="7">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B96" t="n" s="8">
         <v>47090.0</v>
@@ -10298,10 +11236,20 @@
       <c r="AF96" t="n" s="8">
         <v>44233.0</v>
       </c>
+      <c r="AG96" t="n" s="8">
+        <v>43904.0</v>
+      </c>
+      <c r="AH96" t="n" s="8">
+        <v>43990.0</v>
+      </c>
+      <c r="AI96" t="n" s="8">
+        <v>44317.0</v>
+      </c>
+      <c r="AJ96"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="7">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B97" t="n" s="10">
         <v>7.8</v>
@@ -10396,10 +11344,20 @@
       <c r="AF97" t="n" s="10">
         <v>12.5</v>
       </c>
+      <c r="AG97" t="n" s="10">
+        <v>10.4</v>
+      </c>
+      <c r="AH97" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AI97" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AJ97"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="7">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B98" t="n" s="8">
         <v>74872.0</v>
@@ -10494,10 +11452,20 @@
       <c r="AF98" t="n" s="8">
         <v>149806.0</v>
       </c>
+      <c r="AG98" t="n" s="8">
+        <v>125531.0</v>
+      </c>
+      <c r="AH98" t="n" s="8">
+        <v>71749.0</v>
+      </c>
+      <c r="AI98" t="n" s="8">
+        <v>67720.0</v>
+      </c>
+      <c r="AJ98"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="7">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B99" t="n" s="8">
         <v>887154.0</v>
@@ -10592,10 +11560,20 @@
       <c r="AF99" t="n" s="8">
         <v>1052319.0</v>
       </c>
+      <c r="AG99" t="n" s="8">
+        <v>1081803.0</v>
+      </c>
+      <c r="AH99" t="n" s="8">
+        <v>1136159.0</v>
+      </c>
+      <c r="AI99" t="n" s="8">
+        <v>1157820.0</v>
+      </c>
+      <c r="AJ99"/>
     </row>
     <row r="100">
       <c r="A100" t="s" s="7">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B100" t="n" s="8">
         <v>962026.0</v>
@@ -10690,10 +11668,20 @@
       <c r="AF100" t="n" s="8">
         <v>1202125.0</v>
       </c>
+      <c r="AG100" t="n" s="8">
+        <v>1207334.0</v>
+      </c>
+      <c r="AH100" t="n" s="8">
+        <v>1207908.0</v>
+      </c>
+      <c r="AI100" t="n" s="8">
+        <v>1225540.0</v>
+      </c>
+      <c r="AJ100"/>
     </row>
     <row r="101">
       <c r="A101" t="s" s="7">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B101" t="n" s="10">
         <v>7.1</v>
@@ -10788,10 +11776,20 @@
       <c r="AF101" t="n" s="10">
         <v>7.5</v>
       </c>
+      <c r="AG101" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AH101" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI101" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ101"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="7">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B102" t="n" s="8">
         <v>875.0</v>
@@ -10886,10 +11884,20 @@
       <c r="AF102" t="n" s="8">
         <v>869.0</v>
       </c>
+      <c r="AG102" t="n" s="8">
+        <v>593.0</v>
+      </c>
+      <c r="AH102" t="n" s="8">
+        <v>475.0</v>
+      </c>
+      <c r="AI102" t="n" s="8">
+        <v>519.0</v>
+      </c>
+      <c r="AJ102"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="7">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B103" t="n" s="8">
         <v>11473.0</v>
@@ -10984,10 +11992,20 @@
       <c r="AF103" t="n" s="8">
         <v>10775.0</v>
       </c>
+      <c r="AG103" t="n" s="8">
+        <v>10991.0</v>
+      </c>
+      <c r="AH103" t="n" s="8">
+        <v>11175.0</v>
+      </c>
+      <c r="AI103" t="n" s="8">
+        <v>11329.0</v>
+      </c>
+      <c r="AJ103"/>
     </row>
     <row r="104">
       <c r="A104" t="s" s="7">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B104" t="n" s="8">
         <v>12348.0</v>
@@ -11082,10 +12100,20 @@
       <c r="AF104" t="n" s="8">
         <v>11644.0</v>
       </c>
+      <c r="AG104" t="n" s="8">
+        <v>11584.0</v>
+      </c>
+      <c r="AH104" t="n" s="8">
+        <v>11650.0</v>
+      </c>
+      <c r="AI104" t="n" s="8">
+        <v>11848.0</v>
+      </c>
+      <c r="AJ104"/>
     </row>
     <row r="105">
       <c r="A105" t="s" s="7">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B105" t="n" s="10">
         <v>4.3</v>
@@ -11180,10 +12208,20 @@
       <c r="AF105" t="n" s="10">
         <v>6.8</v>
       </c>
+      <c r="AG105" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH105" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI105" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ105"/>
     </row>
     <row r="106">
       <c r="A106" t="s" s="7">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B106" t="n" s="8">
         <v>1399.0</v>
@@ -11278,10 +12316,20 @@
       <c r="AF106" t="n" s="8">
         <v>2075.0</v>
       </c>
+      <c r="AG106" t="n" s="8">
+        <v>1325.0</v>
+      </c>
+      <c r="AH106" t="n" s="8">
+        <v>1016.0</v>
+      </c>
+      <c r="AI106" t="n" s="8">
+        <v>1070.0</v>
+      </c>
+      <c r="AJ106"/>
     </row>
     <row r="107">
       <c r="A107" t="s" s="7">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B107" t="n" s="8">
         <v>30864.0</v>
@@ -11376,10 +12424,20 @@
       <c r="AF107" t="n" s="8">
         <v>28277.0</v>
       </c>
+      <c r="AG107" t="n" s="8">
+        <v>28682.0</v>
+      </c>
+      <c r="AH107" t="n" s="8">
+        <v>29184.0</v>
+      </c>
+      <c r="AI107" t="n" s="8">
+        <v>29370.0</v>
+      </c>
+      <c r="AJ107"/>
     </row>
     <row r="108">
       <c r="A108" t="s" s="7">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B108" t="n" s="8">
         <v>32263.0</v>
@@ -11474,10 +12532,20 @@
       <c r="AF108" t="n" s="8">
         <v>30352.0</v>
       </c>
+      <c r="AG108" t="n" s="8">
+        <v>30007.0</v>
+      </c>
+      <c r="AH108" t="n" s="8">
+        <v>30200.0</v>
+      </c>
+      <c r="AI108" t="n" s="8">
+        <v>30440.0</v>
+      </c>
+      <c r="AJ108"/>
     </row>
     <row r="109">
       <c r="A109" t="s" s="7">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B109" t="n" s="10">
         <v>5.1</v>
@@ -11572,10 +12640,20 @@
       <c r="AF109" t="n" s="10">
         <v>7.5</v>
       </c>
+      <c r="AG109" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH109" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI109" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ109"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="7">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B110" t="n" s="8">
         <v>1796.0</v>
@@ -11670,10 +12748,20 @@
       <c r="AF110" t="n" s="8">
         <v>2495.0</v>
       </c>
+      <c r="AG110" t="n" s="8">
+        <v>1499.0</v>
+      </c>
+      <c r="AH110" t="n" s="8">
+        <v>1127.0</v>
+      </c>
+      <c r="AI110" t="n" s="8">
+        <v>1226.0</v>
+      </c>
+      <c r="AJ110"/>
     </row>
     <row r="111">
       <c r="A111" t="s" s="7">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B111" t="n" s="8">
         <v>33595.0</v>
@@ -11768,10 +12856,20 @@
       <c r="AF111" t="n" s="8">
         <v>30557.0</v>
       </c>
+      <c r="AG111" t="n" s="8">
+        <v>30938.0</v>
+      </c>
+      <c r="AH111" t="n" s="8">
+        <v>31484.0</v>
+      </c>
+      <c r="AI111" t="n" s="8">
+        <v>31701.0</v>
+      </c>
+      <c r="AJ111"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="7">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B112" t="n" s="8">
         <v>35391.0</v>
@@ -11866,10 +12964,20 @@
       <c r="AF112" t="n" s="8">
         <v>33052.0</v>
       </c>
+      <c r="AG112" t="n" s="8">
+        <v>32437.0</v>
+      </c>
+      <c r="AH112" t="n" s="8">
+        <v>32611.0</v>
+      </c>
+      <c r="AI112" t="n" s="8">
+        <v>32927.0</v>
+      </c>
+      <c r="AJ112"/>
     </row>
     <row r="113">
       <c r="A113" t="s" s="7">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B113" t="n" s="10">
         <v>3.4</v>
@@ -11964,10 +13072,20 @@
       <c r="AF113" t="n" s="10">
         <v>8.2</v>
       </c>
+      <c r="AG113" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH113" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI113" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ113"/>
     </row>
     <row r="114">
       <c r="A114" t="s" s="7">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B114" t="n" s="8">
         <v>12700.0</v>
@@ -12062,10 +13180,20 @@
       <c r="AF114" t="n" s="8">
         <v>30063.0</v>
       </c>
+      <c r="AG114" t="n" s="8">
+        <v>18923.0</v>
+      </c>
+      <c r="AH114" t="n" s="8">
+        <v>12799.0</v>
+      </c>
+      <c r="AI114" t="n" s="8">
+        <v>13434.0</v>
+      </c>
+      <c r="AJ114"/>
     </row>
     <row r="115">
       <c r="A115" t="s" s="7">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B115" t="n" s="8">
         <v>364550.0</v>
@@ -12160,10 +13288,20 @@
       <c r="AF115" t="n" s="8">
         <v>336893.0</v>
       </c>
+      <c r="AG115" t="n" s="8">
+        <v>343509.0</v>
+      </c>
+      <c r="AH115" t="n" s="8">
+        <v>350887.0</v>
+      </c>
+      <c r="AI115" t="n" s="8">
+        <v>353007.0</v>
+      </c>
+      <c r="AJ115"/>
     </row>
     <row r="116">
       <c r="A116" t="s" s="7">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B116" t="n" s="8">
         <v>377250.0</v>
@@ -12258,10 +13396,20 @@
       <c r="AF116" t="n" s="8">
         <v>366956.0</v>
       </c>
+      <c r="AG116" t="n" s="8">
+        <v>362432.0</v>
+      </c>
+      <c r="AH116" t="n" s="8">
+        <v>363686.0</v>
+      </c>
+      <c r="AI116" t="n" s="8">
+        <v>366441.0</v>
+      </c>
+      <c r="AJ116"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="7">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B117" t="n" s="10">
         <v>7.0</v>
@@ -12356,10 +13504,20 @@
       <c r="AF117" t="n" s="10">
         <v>8.4</v>
       </c>
+      <c r="AG117" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AH117" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI117" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AJ117"/>
     </row>
     <row r="118">
       <c r="A118" t="s" s="7">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B118" t="n" s="8">
         <v>1718.0</v>
@@ -12454,10 +13612,20 @@
       <c r="AF118" t="n" s="8">
         <v>1899.0</v>
       </c>
+      <c r="AG118" t="n" s="8">
+        <v>1257.0</v>
+      </c>
+      <c r="AH118" t="n" s="8">
+        <v>916.0</v>
+      </c>
+      <c r="AI118" t="n" s="8">
+        <v>1025.0</v>
+      </c>
+      <c r="AJ118"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="7">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B119" t="n" s="8">
         <v>22832.0</v>
@@ -12552,10 +13720,20 @@
       <c r="AF119" t="n" s="8">
         <v>20618.0</v>
       </c>
+      <c r="AG119" t="n" s="8">
+        <v>20808.0</v>
+      </c>
+      <c r="AH119" t="n" s="8">
+        <v>21259.0</v>
+      </c>
+      <c r="AI119" t="n" s="8">
+        <v>21272.0</v>
+      </c>
+      <c r="AJ119"/>
     </row>
     <row r="120">
       <c r="A120" t="s" s="7">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B120" t="n" s="8">
         <v>24550.0</v>
@@ -12650,10 +13828,20 @@
       <c r="AF120" t="n" s="8">
         <v>22517.0</v>
       </c>
+      <c r="AG120" t="n" s="8">
+        <v>22065.0</v>
+      </c>
+      <c r="AH120" t="n" s="8">
+        <v>22175.0</v>
+      </c>
+      <c r="AI120" t="n" s="8">
+        <v>22297.0</v>
+      </c>
+      <c r="AJ120"/>
     </row>
     <row r="121">
       <c r="A121" t="s" s="7">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B121" t="n" s="10">
         <v>3.7</v>
@@ -12748,10 +13936,20 @@
       <c r="AF121" t="n" s="10">
         <v>8.0</v>
       </c>
+      <c r="AG121" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH121" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI121" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ121"/>
     </row>
     <row r="122">
       <c r="A122" t="s" s="7">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B122" t="n" s="8">
         <v>26150.0</v>
@@ -12846,10 +14044,20 @@
       <c r="AF122" t="n" s="8">
         <v>57294.0</v>
       </c>
+      <c r="AG122" t="n" s="8">
+        <v>32267.0</v>
+      </c>
+      <c r="AH122" t="n" s="8">
+        <v>21391.0</v>
+      </c>
+      <c r="AI122" t="n" s="8">
+        <v>23004.0</v>
+      </c>
+      <c r="AJ122"/>
     </row>
     <row r="123">
       <c r="A123" t="s" s="7">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B123" t="n" s="8">
         <v>674639.0</v>
@@ -12944,10 +14152,20 @@
       <c r="AF123" t="n" s="8">
         <v>655369.0</v>
       </c>
+      <c r="AG123" t="n" s="8">
+        <v>681033.0</v>
+      </c>
+      <c r="AH123" t="n" s="8">
+        <v>706044.0</v>
+      </c>
+      <c r="AI123" t="n" s="8">
+        <v>714122.0</v>
+      </c>
+      <c r="AJ123"/>
     </row>
     <row r="124">
       <c r="A124" t="s" s="7">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B124" t="n" s="8">
         <v>700789.0</v>
@@ -13042,10 +14260,20 @@
       <c r="AF124" t="n" s="8">
         <v>712663.0</v>
       </c>
+      <c r="AG124" t="n" s="8">
+        <v>713300.0</v>
+      </c>
+      <c r="AH124" t="n" s="8">
+        <v>727435.0</v>
+      </c>
+      <c r="AI124" t="n" s="8">
+        <v>737126.0</v>
+      </c>
+      <c r="AJ124"/>
     </row>
     <row r="125">
       <c r="A125" t="s" s="7">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B125" t="n" s="10">
         <v>6.0</v>
@@ -13140,10 +14368,20 @@
       <c r="AF125" t="n" s="10">
         <v>9.5</v>
       </c>
+      <c r="AG125" t="n" s="10">
+        <v>7.8</v>
+      </c>
+      <c r="AH125" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AI125" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AJ125"/>
     </row>
     <row r="126">
       <c r="A126" t="s" s="7">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B126" t="n" s="8">
         <v>46568.0</v>
@@ -13238,10 +14476,20 @@
       <c r="AF126" t="n" s="8">
         <v>85395.0</v>
       </c>
+      <c r="AG126" t="n" s="8">
+        <v>70605.0</v>
+      </c>
+      <c r="AH126" t="n" s="8">
+        <v>42582.0</v>
+      </c>
+      <c r="AI126" t="n" s="8">
+        <v>42971.0</v>
+      </c>
+      <c r="AJ126"/>
     </row>
     <row r="127">
       <c r="A127" t="s" s="7">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B127" t="n" s="8">
         <v>735633.0</v>
@@ -13336,10 +14584,20 @@
       <c r="AF127" t="n" s="8">
         <v>811056.0</v>
       </c>
+      <c r="AG127" t="n" s="8">
+        <v>833890.0</v>
+      </c>
+      <c r="AH127" t="n" s="8">
+        <v>875652.0</v>
+      </c>
+      <c r="AI127" t="n" s="8">
+        <v>892343.0</v>
+      </c>
+      <c r="AJ127"/>
     </row>
     <row r="128">
       <c r="A128" t="s" s="7">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B128" t="n" s="8">
         <v>782201.0</v>
@@ -13434,10 +14692,20 @@
       <c r="AF128" t="n" s="8">
         <v>896451.0</v>
       </c>
+      <c r="AG128" t="n" s="8">
+        <v>904495.0</v>
+      </c>
+      <c r="AH128" t="n" s="8">
+        <v>918234.0</v>
+      </c>
+      <c r="AI128" t="n" s="8">
+        <v>935314.0</v>
+      </c>
+      <c r="AJ128"/>
     </row>
     <row r="129">
       <c r="A129" t="s" s="7">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B129" t="n" s="10">
         <v>5.7</v>
@@ -13532,10 +14800,20 @@
       <c r="AF129" t="n" s="10">
         <v>10.1</v>
       </c>
+      <c r="AG129" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AH129" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI129" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AJ129"/>
     </row>
     <row r="130">
       <c r="A130" t="s" s="7">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B130" t="n" s="8">
         <v>6226.0</v>
@@ -13630,10 +14908,20 @@
       <c r="AF130" t="n" s="8">
         <v>10040.0</v>
       </c>
+      <c r="AG130" t="n" s="8">
+        <v>5529.0</v>
+      </c>
+      <c r="AH130" t="n" s="8">
+        <v>3817.0</v>
+      </c>
+      <c r="AI130" t="n" s="8">
+        <v>4040.0</v>
+      </c>
+      <c r="AJ130"/>
     </row>
     <row r="131">
       <c r="A131" t="s" s="7">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B131" t="n" s="8">
         <v>103433.0</v>
@@ -13728,10 +15016,20 @@
       <c r="AF131" t="n" s="8">
         <v>89502.0</v>
       </c>
+      <c r="AG131" t="n" s="8">
+        <v>91822.0</v>
+      </c>
+      <c r="AH131" t="n" s="8">
+        <v>94010.0</v>
+      </c>
+      <c r="AI131" t="n" s="8">
+        <v>95298.0</v>
+      </c>
+      <c r="AJ131"/>
     </row>
     <row r="132">
       <c r="A132" t="s" s="7">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B132" t="n" s="8">
         <v>109659.0</v>
@@ -13826,10 +15124,20 @@
       <c r="AF132" t="n" s="8">
         <v>99542.0</v>
       </c>
+      <c r="AG132" t="n" s="8">
+        <v>97351.0</v>
+      </c>
+      <c r="AH132" t="n" s="8">
+        <v>97827.0</v>
+      </c>
+      <c r="AI132" t="n" s="8">
+        <v>99338.0</v>
+      </c>
+      <c r="AJ132"/>
     </row>
     <row r="133">
       <c r="A133" t="s" s="7">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B133" t="n" s="10">
         <v>4.4</v>
@@ -13924,10 +15232,20 @@
       <c r="AF133" t="n" s="10">
         <v>7.8</v>
       </c>
+      <c r="AG133" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AH133" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI133" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ133"/>
     </row>
     <row r="134">
       <c r="A134" t="s" s="7">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B134" t="n" s="8">
         <v>5095.0</v>
@@ -14022,10 +15340,20 @@
       <c r="AF134" t="n" s="8">
         <v>8032.0</v>
       </c>
+      <c r="AG134" t="n" s="8">
+        <v>5171.0</v>
+      </c>
+      <c r="AH134" t="n" s="8">
+        <v>3621.0</v>
+      </c>
+      <c r="AI134" t="n" s="8">
+        <v>3732.0</v>
+      </c>
+      <c r="AJ134"/>
     </row>
     <row r="135">
       <c r="A135" t="s" s="7">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B135" t="n" s="8">
         <v>109689.0</v>
@@ -14120,10 +15448,20 @@
       <c r="AF135" t="n" s="8">
         <v>94725.0</v>
       </c>
+      <c r="AG135" t="n" s="8">
+        <v>95280.0</v>
+      </c>
+      <c r="AH135" t="n" s="8">
+        <v>96450.0</v>
+      </c>
+      <c r="AI135" t="n" s="8">
+        <v>96796.0</v>
+      </c>
+      <c r="AJ135"/>
     </row>
     <row r="136">
       <c r="A136" t="s" s="7">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B136" t="n" s="8">
         <v>114784.0</v>
@@ -14218,10 +15556,20 @@
       <c r="AF136" t="n" s="8">
         <v>102757.0</v>
       </c>
+      <c r="AG136" t="n" s="8">
+        <v>100451.0</v>
+      </c>
+      <c r="AH136" t="n" s="8">
+        <v>100071.0</v>
+      </c>
+      <c r="AI136" t="n" s="8">
+        <v>100528.0</v>
+      </c>
+      <c r="AJ136"/>
     </row>
     <row r="137">
       <c r="A137" t="s" s="7">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B137" t="n" s="10">
         <v>3.8</v>
@@ -14316,10 +15664,20 @@
       <c r="AF137" t="n" s="10">
         <v>8.0</v>
       </c>
+      <c r="AG137" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AH137" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI137" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ137"/>
     </row>
     <row r="138">
       <c r="A138" t="s" s="7">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B138" t="n" s="8">
         <v>9321.0</v>
@@ -14414,10 +15772,20 @@
       <c r="AF138" t="n" s="8">
         <v>18046.0</v>
       </c>
+      <c r="AG138" t="n" s="8">
+        <v>11002.0</v>
+      </c>
+      <c r="AH138" t="n" s="8">
+        <v>7518.0</v>
+      </c>
+      <c r="AI138" t="n" s="8">
+        <v>7830.0</v>
+      </c>
+      <c r="AJ138"/>
     </row>
     <row r="139">
       <c r="A139" t="s" s="7">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B139" t="n" s="8">
         <v>234779.0</v>
@@ -14512,10 +15880,20 @@
       <c r="AF139" t="n" s="8">
         <v>206935.0</v>
       </c>
+      <c r="AG139" t="n" s="8">
+        <v>210380.0</v>
+      </c>
+      <c r="AH139" t="n" s="8">
+        <v>214753.0</v>
+      </c>
+      <c r="AI139" t="n" s="8">
+        <v>216184.0</v>
+      </c>
+      <c r="AJ139"/>
     </row>
     <row r="140">
       <c r="A140" t="s" s="7">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B140" t="n" s="8">
         <v>244100.0</v>
@@ -14610,10 +15988,20 @@
       <c r="AF140" t="n" s="8">
         <v>224981.0</v>
       </c>
+      <c r="AG140" t="n" s="8">
+        <v>221382.0</v>
+      </c>
+      <c r="AH140" t="n" s="8">
+        <v>222271.0</v>
+      </c>
+      <c r="AI140" t="n" s="8">
+        <v>224014.0</v>
+      </c>
+      <c r="AJ140"/>
     </row>
     <row r="141">
       <c r="A141" t="s" s="7">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B141" t="n" s="10">
         <v>4.3</v>
@@ -14708,10 +16096,20 @@
       <c r="AF141" t="n" s="10">
         <v>7.0</v>
       </c>
+      <c r="AG141" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH141" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI141" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ141"/>
     </row>
     <row r="142">
       <c r="A142" t="s" s="7">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B142" t="n" s="8">
         <v>2167.0</v>
@@ -14806,10 +16204,20 @@
       <c r="AF142" t="n" s="8">
         <v>3892.0</v>
       </c>
+      <c r="AG142" t="n" s="8">
+        <v>2398.0</v>
+      </c>
+      <c r="AH142" t="n" s="8">
+        <v>1741.0</v>
+      </c>
+      <c r="AI142" t="n" s="8">
+        <v>1842.0</v>
+      </c>
+      <c r="AJ142"/>
     </row>
     <row r="143">
       <c r="A143" t="s" s="7">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B143" t="n" s="8">
         <v>48680.0</v>
@@ -14904,10 +16312,20 @@
       <c r="AF143" t="n" s="8">
         <v>51990.0</v>
       </c>
+      <c r="AG143" t="n" s="8">
+        <v>52894.0</v>
+      </c>
+      <c r="AH143" t="n" s="8">
+        <v>53924.0</v>
+      </c>
+      <c r="AI143" t="n" s="8">
+        <v>54262.0</v>
+      </c>
+      <c r="AJ143"/>
     </row>
     <row r="144">
       <c r="A144" t="s" s="7">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B144" t="n" s="8">
         <v>50847.0</v>
@@ -15002,10 +16420,20 @@
       <c r="AF144" t="n" s="8">
         <v>55882.0</v>
       </c>
+      <c r="AG144" t="n" s="8">
+        <v>55292.0</v>
+      </c>
+      <c r="AH144" t="n" s="8">
+        <v>55665.0</v>
+      </c>
+      <c r="AI144" t="n" s="8">
+        <v>56104.0</v>
+      </c>
+      <c r="AJ144"/>
     </row>
     <row r="145">
       <c r="A145" t="s" s="7">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B145" t="n" s="10">
         <v>4.4</v>
@@ -15100,10 +16528,20 @@
       <c r="AF145" t="n" s="10">
         <v>8.0</v>
       </c>
+      <c r="AG145" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH145" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI145" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ145"/>
     </row>
     <row r="146">
       <c r="A146" t="s" s="7">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B146" t="n" s="8">
         <v>6672.0</v>
@@ -15198,10 +16636,20 @@
       <c r="AF146" t="n" s="8">
         <v>14963.0</v>
       </c>
+      <c r="AG146" t="n" s="8">
+        <v>8843.0</v>
+      </c>
+      <c r="AH146" t="n" s="8">
+        <v>6210.0</v>
+      </c>
+      <c r="AI146" t="n" s="8">
+        <v>6658.0</v>
+      </c>
+      <c r="AJ146"/>
     </row>
     <row r="147">
       <c r="A147" t="s" s="7">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B147" t="n" s="8">
         <v>146407.0</v>
@@ -15296,10 +16744,20 @@
       <c r="AF147" t="n" s="8">
         <v>172265.0</v>
       </c>
+      <c r="AG147" t="n" s="8">
+        <v>177197.0</v>
+      </c>
+      <c r="AH147" t="n" s="8">
+        <v>184299.0</v>
+      </c>
+      <c r="AI147" t="n" s="8">
+        <v>187010.0</v>
+      </c>
+      <c r="AJ147"/>
     </row>
     <row r="148">
       <c r="A148" t="s" s="7">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B148" t="n" s="8">
         <v>153079.0</v>
@@ -15394,10 +16852,20 @@
       <c r="AF148" t="n" s="8">
         <v>187228.0</v>
       </c>
+      <c r="AG148" t="n" s="8">
+        <v>186040.0</v>
+      </c>
+      <c r="AH148" t="n" s="8">
+        <v>190509.0</v>
+      </c>
+      <c r="AI148" t="n" s="8">
+        <v>193668.0</v>
+      </c>
+      <c r="AJ148"/>
     </row>
     <row r="149">
       <c r="A149" t="s" s="7">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B149" t="n" s="10">
         <v>6.6</v>
@@ -15492,10 +16960,20 @@
       <c r="AF149" t="n" s="10">
         <v>8.1</v>
       </c>
+      <c r="AG149" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH149" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI149" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ149"/>
     </row>
     <row r="150">
       <c r="A150" t="s" s="7">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B150" t="n" s="8">
         <v>1301.0</v>
@@ -15590,10 +17068,20 @@
       <c r="AF150" t="n" s="8">
         <v>1405.0</v>
       </c>
+      <c r="AG150" t="n" s="8">
+        <v>895.0</v>
+      </c>
+      <c r="AH150" t="n" s="8">
+        <v>657.0</v>
+      </c>
+      <c r="AI150" t="n" s="8">
+        <v>684.0</v>
+      </c>
+      <c r="AJ150"/>
     </row>
     <row r="151">
       <c r="A151" t="s" s="7">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B151" t="n" s="8">
         <v>18437.0</v>
@@ -15688,10 +17176,20 @@
       <c r="AF151" t="n" s="8">
         <v>16007.0</v>
       </c>
+      <c r="AG151" t="n" s="8">
+        <v>16183.0</v>
+      </c>
+      <c r="AH151" t="n" s="8">
+        <v>16447.0</v>
+      </c>
+      <c r="AI151" t="n" s="8">
+        <v>16549.0</v>
+      </c>
+      <c r="AJ151"/>
     </row>
     <row r="152">
       <c r="A152" t="s" s="7">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B152" t="n" s="8">
         <v>19738.0</v>
@@ -15786,10 +17284,20 @@
       <c r="AF152" t="n" s="8">
         <v>17412.0</v>
       </c>
+      <c r="AG152" t="n" s="8">
+        <v>17078.0</v>
+      </c>
+      <c r="AH152" t="n" s="8">
+        <v>17104.0</v>
+      </c>
+      <c r="AI152" t="n" s="8">
+        <v>17233.0</v>
+      </c>
+      <c r="AJ152"/>
     </row>
     <row r="153">
       <c r="A153" t="s" s="7">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B153" t="n" s="10">
         <v>6.9</v>
@@ -15884,10 +17392,20 @@
       <c r="AF153" t="n" s="10">
         <v>8.6</v>
       </c>
+      <c r="AG153" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AH153" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI153" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ153"/>
     </row>
     <row r="154">
       <c r="A154" t="s" s="7">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B154" t="n" s="8">
         <v>3961.0</v>
@@ -15982,10 +17500,20 @@
       <c r="AF154" t="n" s="8">
         <v>4591.0</v>
       </c>
+      <c r="AG154" t="n" s="8">
+        <v>2909.0</v>
+      </c>
+      <c r="AH154" t="n" s="8">
+        <v>2177.0</v>
+      </c>
+      <c r="AI154" t="n" s="8">
+        <v>2280.0</v>
+      </c>
+      <c r="AJ154"/>
     </row>
     <row r="155">
       <c r="A155" t="s" s="7">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B155" t="n" s="8">
         <v>53528.0</v>
@@ -16080,10 +17608,20 @@
       <c r="AF155" t="n" s="8">
         <v>48538.0</v>
       </c>
+      <c r="AG155" t="n" s="8">
+        <v>49299.0</v>
+      </c>
+      <c r="AH155" t="n" s="8">
+        <v>50279.0</v>
+      </c>
+      <c r="AI155" t="n" s="8">
+        <v>50619.0</v>
+      </c>
+      <c r="AJ155"/>
     </row>
     <row r="156">
       <c r="A156" t="s" s="7">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B156" t="n" s="8">
         <v>57489.0</v>
@@ -16178,10 +17716,20 @@
       <c r="AF156" t="n" s="8">
         <v>53129.0</v>
       </c>
+      <c r="AG156" t="n" s="8">
+        <v>52208.0</v>
+      </c>
+      <c r="AH156" t="n" s="8">
+        <v>52456.0</v>
+      </c>
+      <c r="AI156" t="n" s="8">
+        <v>52899.0</v>
+      </c>
+      <c r="AJ156"/>
     </row>
     <row r="157">
       <c r="A157" t="s" s="7">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B157" t="n" s="10">
         <v>5.1</v>
@@ -16276,10 +17824,20 @@
       <c r="AF157" t="n" s="10">
         <v>6.9</v>
       </c>
+      <c r="AG157" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH157" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI157" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ157"/>
     </row>
     <row r="158">
       <c r="A158" t="s" s="7">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B158" t="n" s="8">
         <v>1499.0</v>
@@ -16374,10 +17932,20 @@
       <c r="AF158" t="n" s="8">
         <v>1884.0</v>
       </c>
+      <c r="AG158" t="n" s="8">
+        <v>1225.0</v>
+      </c>
+      <c r="AH158" t="n" s="8">
+        <v>950.0</v>
+      </c>
+      <c r="AI158" t="n" s="8">
+        <v>1034.0</v>
+      </c>
+      <c r="AJ158"/>
     </row>
     <row r="159">
       <c r="A159" t="s" s="7">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B159" t="n" s="8">
         <v>28143.0</v>
@@ -16472,10 +18040,20 @@
       <c r="AF159" t="n" s="8">
         <v>25275.0</v>
       </c>
+      <c r="AG159" t="n" s="8">
+        <v>25750.0</v>
+      </c>
+      <c r="AH159" t="n" s="8">
+        <v>25991.0</v>
+      </c>
+      <c r="AI159" t="n" s="8">
+        <v>25920.0</v>
+      </c>
+      <c r="AJ159"/>
     </row>
     <row r="160">
       <c r="A160" t="s" s="7">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B160" t="n" s="8">
         <v>29642.0</v>
@@ -16570,10 +18148,20 @@
       <c r="AF160" t="n" s="8">
         <v>27159.0</v>
       </c>
+      <c r="AG160" t="n" s="8">
+        <v>26975.0</v>
+      </c>
+      <c r="AH160" t="n" s="8">
+        <v>26941.0</v>
+      </c>
+      <c r="AI160" t="n" s="8">
+        <v>26954.0</v>
+      </c>
+      <c r="AJ160"/>
     </row>
     <row r="161">
       <c r="A161" t="s" s="7">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B161" t="n" s="10">
         <v>3.3</v>
@@ -16668,10 +18256,20 @@
       <c r="AF161" t="n" s="10">
         <v>7.2</v>
       </c>
+      <c r="AG161" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AH161" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI161" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ161"/>
     </row>
     <row r="162">
       <c r="A162" t="s" s="7">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B162" t="n" s="8">
         <v>1582.0</v>
@@ -16766,10 +18364,20 @@
       <c r="AF162" t="n" s="8">
         <v>3706.0</v>
       </c>
+      <c r="AG162" t="n" s="8">
+        <v>2148.0</v>
+      </c>
+      <c r="AH162" t="n" s="8">
+        <v>1543.0</v>
+      </c>
+      <c r="AI162" t="n" s="8">
+        <v>1631.0</v>
+      </c>
+      <c r="AJ162"/>
     </row>
     <row r="163">
       <c r="A163" t="s" s="7">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B163" t="n" s="8">
         <v>46508.0</v>
@@ -16864,10 +18472,20 @@
       <c r="AF163" t="n" s="8">
         <v>47668.0</v>
       </c>
+      <c r="AG163" t="n" s="8">
+        <v>48734.0</v>
+      </c>
+      <c r="AH163" t="n" s="8">
+        <v>50049.0</v>
+      </c>
+      <c r="AI163" t="n" s="8">
+        <v>50548.0</v>
+      </c>
+      <c r="AJ163"/>
     </row>
     <row r="164">
       <c r="A164" t="s" s="7">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B164" t="n" s="8">
         <v>48090.0</v>
@@ -16962,10 +18580,20 @@
       <c r="AF164" t="n" s="8">
         <v>51374.0</v>
       </c>
+      <c r="AG164" t="n" s="8">
+        <v>50882.0</v>
+      </c>
+      <c r="AH164" t="n" s="8">
+        <v>51592.0</v>
+      </c>
+      <c r="AI164" t="n" s="8">
+        <v>52179.0</v>
+      </c>
+      <c r="AJ164"/>
     </row>
     <row r="165">
       <c r="A165" t="s" s="7">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B165" t="n" s="10">
         <v>6.0</v>
@@ -17060,10 +18688,20 @@
       <c r="AF165" t="n" s="10">
         <v>12.4</v>
       </c>
+      <c r="AG165" t="n" s="10">
+        <v>9.9</v>
+      </c>
+      <c r="AH165" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AI165" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AJ165"/>
     </row>
     <row r="166">
       <c r="A166" t="s" s="7">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B166" t="n" s="8">
         <v>57142.0</v>
@@ -17158,10 +18796,20 @@
       <c r="AF166" t="n" s="8">
         <v>142199.0</v>
       </c>
+      <c r="AG166" t="n" s="8">
+        <v>112411.0</v>
+      </c>
+      <c r="AH166" t="n" s="8">
+        <v>60227.0</v>
+      </c>
+      <c r="AI166" t="n" s="8">
+        <v>53097.0</v>
+      </c>
+      <c r="AJ166"/>
     </row>
     <row r="167">
       <c r="A167" t="s" s="7">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B167" t="n" s="8">
         <v>897549.0</v>
@@ -17256,10 +18904,20 @@
       <c r="AF167" t="n" s="8">
         <v>1000240.0</v>
       </c>
+      <c r="AG167" t="n" s="8">
+        <v>1028039.0</v>
+      </c>
+      <c r="AH167" t="n" s="8">
+        <v>1079845.0</v>
+      </c>
+      <c r="AI167" t="n" s="8">
+        <v>1100437.0</v>
+      </c>
+      <c r="AJ167"/>
     </row>
     <row r="168">
       <c r="A168" t="s" s="7">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B168" t="n" s="8">
         <v>954691.0</v>
@@ -17354,10 +19012,20 @@
       <c r="AF168" t="n" s="8">
         <v>1142439.0</v>
       </c>
+      <c r="AG168" t="n" s="8">
+        <v>1140450.0</v>
+      </c>
+      <c r="AH168" t="n" s="8">
+        <v>1140072.0</v>
+      </c>
+      <c r="AI168" t="n" s="8">
+        <v>1153534.0</v>
+      </c>
+      <c r="AJ168"/>
     </row>
     <row r="169">
       <c r="A169" t="s" s="7">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B169" t="n" s="10">
         <v>4.0</v>
@@ -17452,10 +19120,20 @@
       <c r="AF169" t="n" s="10">
         <v>6.7</v>
       </c>
+      <c r="AG169" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH169" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI169" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ169"/>
     </row>
     <row r="170">
       <c r="A170" t="s" s="7">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B170" t="n" s="8">
         <v>3300.0</v>
@@ -17550,10 +19228,20 @@
       <c r="AF170" t="n" s="8">
         <v>5532.0</v>
       </c>
+      <c r="AG170" t="n" s="8">
+        <v>3612.0</v>
+      </c>
+      <c r="AH170" t="n" s="8">
+        <v>2561.0</v>
+      </c>
+      <c r="AI170" t="n" s="8">
+        <v>2737.0</v>
+      </c>
+      <c r="AJ170"/>
     </row>
     <row r="171">
       <c r="A171" t="s" s="7">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B171" t="n" s="8">
         <v>78323.0</v>
@@ -17648,10 +19336,20 @@
       <c r="AF171" t="n" s="8">
         <v>76661.0</v>
       </c>
+      <c r="AG171" t="n" s="8">
+        <v>77764.0</v>
+      </c>
+      <c r="AH171" t="n" s="8">
+        <v>79295.0</v>
+      </c>
+      <c r="AI171" t="n" s="8">
+        <v>80116.0</v>
+      </c>
+      <c r="AJ171"/>
     </row>
     <row r="172">
       <c r="A172" t="s" s="7">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B172" t="n" s="8">
         <v>81623.0</v>
@@ -17746,10 +19444,20 @@
       <c r="AF172" t="n" s="8">
         <v>82193.0</v>
       </c>
+      <c r="AG172" t="n" s="8">
+        <v>81376.0</v>
+      </c>
+      <c r="AH172" t="n" s="8">
+        <v>81856.0</v>
+      </c>
+      <c r="AI172" t="n" s="8">
+        <v>82853.0</v>
+      </c>
+      <c r="AJ172"/>
     </row>
     <row r="173">
       <c r="A173" t="s" s="7">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B173" t="n" s="10">
         <v>6.1</v>
@@ -17844,10 +19552,20 @@
       <c r="AF173" t="n" s="10">
         <v>10.5</v>
       </c>
+      <c r="AG173" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="AH173" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AI173" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AJ173"/>
     </row>
     <row r="174">
       <c r="A174" t="s" s="7">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B174" t="n" s="8">
         <v>11074.0</v>
@@ -17942,10 +19660,20 @@
       <c r="AF174" t="n" s="8">
         <v>23281.0</v>
       </c>
+      <c r="AG174" t="n" s="8">
+        <v>20182.0</v>
+      </c>
+      <c r="AH174" t="n" s="8">
+        <v>12614.0</v>
+      </c>
+      <c r="AI174" t="n" s="8">
+        <v>11206.0</v>
+      </c>
+      <c r="AJ174"/>
     </row>
     <row r="175">
       <c r="A175" t="s" s="7">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B175" t="n" s="8">
         <v>169849.0</v>
@@ -18040,10 +19768,20 @@
       <c r="AF175" t="n" s="8">
         <v>198280.0</v>
       </c>
+      <c r="AG175" t="n" s="8">
+        <v>203690.0</v>
+      </c>
+      <c r="AH175" t="n" s="8">
+        <v>214276.0</v>
+      </c>
+      <c r="AI175" t="n" s="8">
+        <v>218372.0</v>
+      </c>
+      <c r="AJ175"/>
     </row>
     <row r="176">
       <c r="A176" t="s" s="7">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B176" t="n" s="8">
         <v>180923.0</v>
@@ -18138,10 +19876,20 @@
       <c r="AF176" t="n" s="8">
         <v>221561.0</v>
       </c>
+      <c r="AG176" t="n" s="8">
+        <v>223872.0</v>
+      </c>
+      <c r="AH176" t="n" s="8">
+        <v>226890.0</v>
+      </c>
+      <c r="AI176" t="n" s="8">
+        <v>229578.0</v>
+      </c>
+      <c r="AJ176"/>
     </row>
     <row r="177">
       <c r="A177" t="s" s="7">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B177" t="n" s="10">
         <v>3.3</v>
@@ -18236,10 +19984,20 @@
       <c r="AF177" t="n" s="10">
         <v>7.7</v>
       </c>
+      <c r="AG177" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH177" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI177" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ177"/>
     </row>
     <row r="178">
       <c r="A178" t="s" s="7">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B178" t="n" s="8">
         <v>4819.0</v>
@@ -18334,10 +20092,20 @@
       <c r="AF178" t="n" s="8">
         <v>12059.0</v>
       </c>
+      <c r="AG178" t="n" s="8">
+        <v>6929.0</v>
+      </c>
+      <c r="AH178" t="n" s="8">
+        <v>4626.0</v>
+      </c>
+      <c r="AI178" t="n" s="8">
+        <v>5055.0</v>
+      </c>
+      <c r="AJ178"/>
     </row>
     <row r="179">
       <c r="A179" t="s" s="7">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B179" t="n" s="8">
         <v>139878.0</v>
@@ -18432,10 +20200,20 @@
       <c r="AF179" t="n" s="8">
         <v>144312.0</v>
       </c>
+      <c r="AG179" t="n" s="8">
+        <v>148767.0</v>
+      </c>
+      <c r="AH179" t="n" s="8">
+        <v>154732.0</v>
+      </c>
+      <c r="AI179" t="n" s="8">
+        <v>157018.0</v>
+      </c>
+      <c r="AJ179"/>
     </row>
     <row r="180">
       <c r="A180" t="s" s="7">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B180" t="n" s="8">
         <v>144697.0</v>
@@ -18530,10 +20308,20 @@
       <c r="AF180" t="n" s="8">
         <v>156371.0</v>
       </c>
+      <c r="AG180" t="n" s="8">
+        <v>155696.0</v>
+      </c>
+      <c r="AH180" t="n" s="8">
+        <v>159358.0</v>
+      </c>
+      <c r="AI180" t="n" s="8">
+        <v>162073.0</v>
+      </c>
+      <c r="AJ180"/>
     </row>
     <row r="181">
       <c r="A181" t="s" s="7">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B181" t="n" s="10">
         <v>7.9</v>
@@ -18628,10 +20416,20 @@
       <c r="AF181" t="n" s="10">
         <v>7.9</v>
       </c>
+      <c r="AG181" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH181" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI181" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ181"/>
     </row>
     <row r="182">
       <c r="A182" t="s" s="7">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B182" t="n" s="8">
         <v>3927.0</v>
@@ -18726,10 +20524,20 @@
       <c r="AF182" t="n" s="8">
         <v>3454.0</v>
       </c>
+      <c r="AG182" t="n" s="8">
+        <v>2253.0</v>
+      </c>
+      <c r="AH182" t="n" s="8">
+        <v>1801.0</v>
+      </c>
+      <c r="AI182" t="n" s="8">
+        <v>1885.0</v>
+      </c>
+      <c r="AJ182"/>
     </row>
     <row r="183">
       <c r="A183" t="s" s="7">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B183" t="n" s="8">
         <v>45611.0</v>
@@ -18824,10 +20632,20 @@
       <c r="AF183" t="n" s="8">
         <v>40394.0</v>
       </c>
+      <c r="AG183" t="n" s="8">
+        <v>41016.0</v>
+      </c>
+      <c r="AH183" t="n" s="8">
+        <v>40894.0</v>
+      </c>
+      <c r="AI183" t="n" s="8">
+        <v>41229.0</v>
+      </c>
+      <c r="AJ183"/>
     </row>
     <row r="184">
       <c r="A184" t="s" s="7">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B184" t="n" s="8">
         <v>49538.0</v>
@@ -18922,10 +20740,20 @@
       <c r="AF184" t="n" s="8">
         <v>43848.0</v>
       </c>
+      <c r="AG184" t="n" s="8">
+        <v>43269.0</v>
+      </c>
+      <c r="AH184" t="n" s="8">
+        <v>42695.0</v>
+      </c>
+      <c r="AI184" t="n" s="8">
+        <v>43114.0</v>
+      </c>
+      <c r="AJ184"/>
     </row>
     <row r="185">
       <c r="A185" t="s" s="7">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B185" t="n" s="10">
         <v>3.6</v>
@@ -19020,10 +20848,20 @@
       <c r="AF185" t="n" s="10">
         <v>6.4</v>
       </c>
+      <c r="AG185" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AH185" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI185" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ185"/>
     </row>
     <row r="186">
       <c r="A186" t="s" s="7">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B186" t="n" s="8">
         <v>3511.0</v>
@@ -19118,10 +20956,20 @@
       <c r="AF186" t="n" s="8">
         <v>7844.0</v>
       </c>
+      <c r="AG186" t="n" s="8">
+        <v>4632.0</v>
+      </c>
+      <c r="AH186" t="n" s="8">
+        <v>3293.0</v>
+      </c>
+      <c r="AI186" t="n" s="8">
+        <v>3533.0</v>
+      </c>
+      <c r="AJ186"/>
     </row>
     <row r="187">
       <c r="A187" t="s" s="7">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B187" t="n" s="8">
         <v>93395.0</v>
@@ -19216,10 +21064,20 @@
       <c r="AF187" t="n" s="8">
         <v>113947.0</v>
       </c>
+      <c r="AG187" t="n" s="8">
+        <v>115584.0</v>
+      </c>
+      <c r="AH187" t="n" s="8">
+        <v>117811.0</v>
+      </c>
+      <c r="AI187" t="n" s="8">
+        <v>119039.0</v>
+      </c>
+      <c r="AJ187"/>
     </row>
     <row r="188">
       <c r="A188" t="s" s="7">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B188" t="n" s="8">
         <v>96906.0</v>
@@ -19314,10 +21172,20 @@
       <c r="AF188" t="n" s="8">
         <v>121791.0</v>
       </c>
+      <c r="AG188" t="n" s="8">
+        <v>120216.0</v>
+      </c>
+      <c r="AH188" t="n" s="8">
+        <v>121104.0</v>
+      </c>
+      <c r="AI188" t="n" s="8">
+        <v>122572.0</v>
+      </c>
+      <c r="AJ188"/>
     </row>
     <row r="189">
       <c r="A189" t="s" s="7">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B189" t="n" s="10">
         <v>3.9</v>
@@ -19412,10 +21280,20 @@
       <c r="AF189" t="n" s="10">
         <v>7.7</v>
       </c>
+      <c r="AG189" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AH189" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI189" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ189"/>
     </row>
     <row r="190">
       <c r="A190" t="s" s="7">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B190" t="n" s="8">
         <v>2909.0</v>
@@ -19510,10 +21388,20 @@
       <c r="AF190" t="n" s="8">
         <v>6055.0</v>
       </c>
+      <c r="AG190" t="n" s="8">
+        <v>3848.0</v>
+      </c>
+      <c r="AH190" t="n" s="8">
+        <v>2627.0</v>
+      </c>
+      <c r="AI190" t="n" s="8">
+        <v>2754.0</v>
+      </c>
+      <c r="AJ190"/>
     </row>
     <row r="191">
       <c r="A191" t="s" s="7">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B191" t="n" s="8">
         <v>72506.0</v>
@@ -19608,10 +21496,20 @@
       <c r="AF191" t="n" s="8">
         <v>72431.0</v>
       </c>
+      <c r="AG191" t="n" s="8">
+        <v>73486.0</v>
+      </c>
+      <c r="AH191" t="n" s="8">
+        <v>74955.0</v>
+      </c>
+      <c r="AI191" t="n" s="8">
+        <v>75729.0</v>
+      </c>
+      <c r="AJ191"/>
     </row>
     <row r="192">
       <c r="A192" t="s" s="7">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B192" t="n" s="8">
         <v>75415.0</v>
@@ -19706,10 +21604,20 @@
       <c r="AF192" t="n" s="8">
         <v>78486.0</v>
       </c>
+      <c r="AG192" t="n" s="8">
+        <v>77334.0</v>
+      </c>
+      <c r="AH192" t="n" s="8">
+        <v>77582.0</v>
+      </c>
+      <c r="AI192" t="n" s="8">
+        <v>78483.0</v>
+      </c>
+      <c r="AJ192"/>
     </row>
     <row r="193">
       <c r="A193" t="s" s="7">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B193" t="n" s="10">
         <v>5.1</v>
@@ -19804,10 +21712,20 @@
       <c r="AF193" t="n" s="10">
         <v>6.8</v>
       </c>
+      <c r="AG193" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH193" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI193" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ193"/>
     </row>
     <row r="194">
       <c r="A194" t="s" s="7">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B194" t="n" s="8">
         <v>779.0</v>
@@ -19902,10 +21820,20 @@
       <c r="AF194" t="n" s="8">
         <v>1014.0</v>
       </c>
+      <c r="AG194" t="n" s="8">
+        <v>678.0</v>
+      </c>
+      <c r="AH194" t="n" s="8">
+        <v>545.0</v>
+      </c>
+      <c r="AI194" t="n" s="8">
+        <v>621.0</v>
+      </c>
+      <c r="AJ194"/>
     </row>
     <row r="195">
       <c r="A195" t="s" s="7">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B195" t="n" s="8">
         <v>14391.0</v>
@@ -20000,10 +21928,20 @@
       <c r="AF195" t="n" s="8">
         <v>13817.0</v>
       </c>
+      <c r="AG195" t="n" s="8">
+        <v>13952.0</v>
+      </c>
+      <c r="AH195" t="n" s="8">
+        <v>14173.0</v>
+      </c>
+      <c r="AI195" t="n" s="8">
+        <v>14322.0</v>
+      </c>
+      <c r="AJ195"/>
     </row>
     <row r="196">
       <c r="A196" t="s" s="7">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B196" t="n" s="8">
         <v>15170.0</v>
@@ -20098,10 +22036,20 @@
       <c r="AF196" t="n" s="8">
         <v>14831.0</v>
       </c>
+      <c r="AG196" t="n" s="8">
+        <v>14630.0</v>
+      </c>
+      <c r="AH196" t="n" s="8">
+        <v>14718.0</v>
+      </c>
+      <c r="AI196" t="n" s="8">
+        <v>14943.0</v>
+      </c>
+      <c r="AJ196"/>
     </row>
     <row r="197">
       <c r="A197" t="s" s="7">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B197" t="n" s="10">
         <v>5.5</v>
@@ -20196,10 +22144,20 @@
       <c r="AF197" t="n" s="10">
         <v>8.3</v>
       </c>
+      <c r="AG197" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AH197" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI197" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AJ197"/>
     </row>
     <row r="198">
       <c r="A198" t="s" s="7">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B198" t="n" s="8">
         <v>507.0</v>
@@ -20294,10 +22252,20 @@
       <c r="AF198" t="n" s="8">
         <v>684.0</v>
       </c>
+      <c r="AG198" t="n" s="8">
+        <v>405.0</v>
+      </c>
+      <c r="AH198" t="n" s="8">
+        <v>302.0</v>
+      </c>
+      <c r="AI198" t="n" s="8">
+        <v>319.0</v>
+      </c>
+      <c r="AJ198"/>
     </row>
     <row r="199">
       <c r="A199" t="s" s="7">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B199" t="n" s="8">
         <v>8674.0</v>
@@ -20392,10 +22360,20 @@
       <c r="AF199" t="n" s="8">
         <v>7524.0</v>
       </c>
+      <c r="AG199" t="n" s="8">
+        <v>7710.0</v>
+      </c>
+      <c r="AH199" t="n" s="8">
+        <v>7727.0</v>
+      </c>
+      <c r="AI199" t="n" s="8">
+        <v>7823.0</v>
+      </c>
+      <c r="AJ199"/>
     </row>
     <row r="200">
       <c r="A200" t="s" s="7">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B200" t="n" s="8">
         <v>9181.0</v>
@@ -20490,10 +22468,20 @@
       <c r="AF200" t="n" s="8">
         <v>8208.0</v>
       </c>
+      <c r="AG200" t="n" s="8">
+        <v>8115.0</v>
+      </c>
+      <c r="AH200" t="n" s="8">
+        <v>8029.0</v>
+      </c>
+      <c r="AI200" t="n" s="8">
+        <v>8142.0</v>
+      </c>
+      <c r="AJ200"/>
     </row>
     <row r="201">
       <c r="A201" t="s" s="7">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B201" t="n" s="10">
         <v>4.7</v>
@@ -20588,10 +22576,20 @@
       <c r="AF201" t="n" s="10">
         <v>7.8</v>
       </c>
+      <c r="AG201" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH201" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI201" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ201"/>
     </row>
     <row r="202">
       <c r="A202" t="s" s="7">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B202" t="n" s="8">
         <v>768.0</v>
@@ -20686,10 +22684,20 @@
       <c r="AF202" t="n" s="8">
         <v>1218.0</v>
       </c>
+      <c r="AG202" t="n" s="8">
+        <v>723.0</v>
+      </c>
+      <c r="AH202" t="n" s="8">
+        <v>487.0</v>
+      </c>
+      <c r="AI202" t="n" s="8">
+        <v>510.0</v>
+      </c>
+      <c r="AJ202"/>
     </row>
     <row r="203">
       <c r="A203" t="s" s="7">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B203" t="n" s="8">
         <v>15643.0</v>
@@ -20784,10 +22792,20 @@
       <c r="AF203" t="n" s="8">
         <v>14350.0</v>
       </c>
+      <c r="AG203" t="n" s="8">
+        <v>14410.0</v>
+      </c>
+      <c r="AH203" t="n" s="8">
+        <v>14284.0</v>
+      </c>
+      <c r="AI203" t="n" s="8">
+        <v>14114.0</v>
+      </c>
+      <c r="AJ203"/>
     </row>
     <row r="204">
       <c r="A204" t="s" s="7">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B204" t="n" s="8">
         <v>16411.0</v>
@@ -20882,10 +22900,20 @@
       <c r="AF204" t="n" s="8">
         <v>15568.0</v>
       </c>
+      <c r="AG204" t="n" s="8">
+        <v>15133.0</v>
+      </c>
+      <c r="AH204" t="n" s="8">
+        <v>14771.0</v>
+      </c>
+      <c r="AI204" t="n" s="8">
+        <v>14624.0</v>
+      </c>
+      <c r="AJ204"/>
     </row>
     <row r="205">
       <c r="A205" t="s" s="7">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B205" t="n" s="10">
         <v>5.2</v>
@@ -20980,10 +23008,20 @@
       <c r="AF205" t="n" s="10">
         <v>7.9</v>
       </c>
+      <c r="AG205" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AH205" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI205" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ205"/>
     </row>
     <row r="206">
       <c r="A206" t="s" s="7">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B206" t="n" s="8">
         <v>2422.0</v>
@@ -21078,10 +23116,20 @@
       <c r="AF206" t="n" s="8">
         <v>3368.0</v>
       </c>
+      <c r="AG206" t="n" s="8">
+        <v>2107.0</v>
+      </c>
+      <c r="AH206" t="n" s="8">
+        <v>1525.0</v>
+      </c>
+      <c r="AI206" t="n" s="8">
+        <v>1636.0</v>
+      </c>
+      <c r="AJ206"/>
     </row>
     <row r="207">
       <c r="A207" t="s" s="7">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B207" t="n" s="8">
         <v>44147.0</v>
@@ -21176,10 +23224,20 @@
       <c r="AF207" t="n" s="8">
         <v>39426.0</v>
       </c>
+      <c r="AG207" t="n" s="8">
+        <v>39625.0</v>
+      </c>
+      <c r="AH207" t="n" s="8">
+        <v>39687.0</v>
+      </c>
+      <c r="AI207" t="n" s="8">
+        <v>39573.0</v>
+      </c>
+      <c r="AJ207"/>
     </row>
     <row r="208">
       <c r="A208" t="s" s="7">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B208" t="n" s="8">
         <v>46569.0</v>
@@ -21274,10 +23332,20 @@
       <c r="AF208" t="n" s="8">
         <v>42794.0</v>
       </c>
+      <c r="AG208" t="n" s="8">
+        <v>41732.0</v>
+      </c>
+      <c r="AH208" t="n" s="8">
+        <v>41212.0</v>
+      </c>
+      <c r="AI208" t="n" s="8">
+        <v>41209.0</v>
+      </c>
+      <c r="AJ208"/>
     </row>
     <row r="209">
       <c r="A209" t="s" s="7">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B209" t="n" s="10">
         <v>4.4</v>
@@ -21372,10 +23440,20 @@
       <c r="AF209" t="n" s="10">
         <v>8.1</v>
       </c>
+      <c r="AG209" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH209" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI209" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ209"/>
     </row>
     <row r="210">
       <c r="A210" t="s" s="7">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B210" t="n" s="8">
         <v>31434.0</v>
@@ -21470,10 +23548,20 @@
       <c r="AF210" t="n" s="8">
         <v>63489.0</v>
       </c>
+      <c r="AG210" t="n" s="8">
+        <v>36121.0</v>
+      </c>
+      <c r="AH210" t="n" s="8">
+        <v>25468.0</v>
+      </c>
+      <c r="AI210" t="n" s="8">
+        <v>27443.0</v>
+      </c>
+      <c r="AJ210"/>
     </row>
     <row r="211">
       <c r="A211" t="s" s="7">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B211" t="n" s="8">
         <v>679555.0</v>
@@ -21568,10 +23656,20 @@
       <c r="AF211" t="n" s="8">
         <v>718094.0</v>
       </c>
+      <c r="AG211" t="n" s="8">
+        <v>745778.0</v>
+      </c>
+      <c r="AH211" t="n" s="8">
+        <v>773162.0</v>
+      </c>
+      <c r="AI211" t="n" s="8">
+        <v>781979.0</v>
+      </c>
+      <c r="AJ211"/>
     </row>
     <row r="212">
       <c r="A212" t="s" s="7">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B212" t="n" s="8">
         <v>710989.0</v>
@@ -21666,10 +23764,20 @@
       <c r="AF212" t="n" s="8">
         <v>781583.0</v>
       </c>
+      <c r="AG212" t="n" s="8">
+        <v>781899.0</v>
+      </c>
+      <c r="AH212" t="n" s="8">
+        <v>798630.0</v>
+      </c>
+      <c r="AI212" t="n" s="8">
+        <v>809422.0</v>
+      </c>
+      <c r="AJ212"/>
     </row>
     <row r="213">
       <c r="A213" t="s" s="7">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B213" t="n" s="10">
         <v>5.1</v>
@@ -21764,10 +23872,20 @@
       <c r="AF213" t="n" s="10">
         <v>8.4</v>
       </c>
+      <c r="AG213" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AH213" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI213" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ213"/>
     </row>
     <row r="214">
       <c r="A214" t="s" s="7">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B214" t="n" s="8">
         <v>1710.0</v>
@@ -21862,10 +23980,20 @@
       <c r="AF214" t="n" s="8">
         <v>3070.0</v>
       </c>
+      <c r="AG214" t="n" s="8">
+        <v>1800.0</v>
+      </c>
+      <c r="AH214" t="n" s="8">
+        <v>1245.0</v>
+      </c>
+      <c r="AI214" t="n" s="8">
+        <v>1282.0</v>
+      </c>
+      <c r="AJ214"/>
     </row>
     <row r="215">
       <c r="A215" t="s" s="7">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B215" t="n" s="8">
         <v>31683.0</v>
@@ -21960,10 +24088,20 @@
       <c r="AF215" t="n" s="8">
         <v>33513.0</v>
       </c>
+      <c r="AG215" t="n" s="8">
+        <v>34638.0</v>
+      </c>
+      <c r="AH215" t="n" s="8">
+        <v>36103.0</v>
+      </c>
+      <c r="AI215" t="n" s="8">
+        <v>37358.0</v>
+      </c>
+      <c r="AJ215"/>
     </row>
     <row r="216">
       <c r="A216" t="s" s="7">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B216" t="n" s="8">
         <v>33393.0</v>
@@ -22058,10 +24196,20 @@
       <c r="AF216" t="n" s="8">
         <v>36583.0</v>
       </c>
+      <c r="AG216" t="n" s="8">
+        <v>36438.0</v>
+      </c>
+      <c r="AH216" t="n" s="8">
+        <v>37348.0</v>
+      </c>
+      <c r="AI216" t="n" s="8">
+        <v>38640.0</v>
+      </c>
+      <c r="AJ216"/>
     </row>
     <row r="217">
       <c r="A217" t="s" s="7">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B217" t="n" s="10">
         <v>4.3</v>
@@ -22156,10 +24304,20 @@
       <c r="AF217" t="n" s="10">
         <v>7.5</v>
       </c>
+      <c r="AG217" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH217" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI217" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ217"/>
     </row>
     <row r="218">
       <c r="A218" t="s" s="7">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B218" t="n" s="8">
         <v>1144.0</v>
@@ -22254,10 +24412,20 @@
       <c r="AF218" t="n" s="8">
         <v>1701.0</v>
       </c>
+      <c r="AG218" t="n" s="8">
+        <v>995.0</v>
+      </c>
+      <c r="AH218" t="n" s="8">
+        <v>729.0</v>
+      </c>
+      <c r="AI218" t="n" s="8">
+        <v>759.0</v>
+      </c>
+      <c r="AJ218"/>
     </row>
     <row r="219">
       <c r="A219" t="s" s="7">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B219" t="n" s="8">
         <v>25253.0</v>
@@ -22352,10 +24520,20 @@
       <c r="AF219" t="n" s="8">
         <v>20901.0</v>
       </c>
+      <c r="AG219" t="n" s="8">
+        <v>21174.0</v>
+      </c>
+      <c r="AH219" t="n" s="8">
+        <v>21452.0</v>
+      </c>
+      <c r="AI219" t="n" s="8">
+        <v>21669.0</v>
+      </c>
+      <c r="AJ219"/>
     </row>
     <row r="220">
       <c r="A220" t="s" s="7">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B220" t="n" s="8">
         <v>26397.0</v>
@@ -22450,10 +24628,20 @@
       <c r="AF220" t="n" s="8">
         <v>22602.0</v>
       </c>
+      <c r="AG220" t="n" s="8">
+        <v>22169.0</v>
+      </c>
+      <c r="AH220" t="n" s="8">
+        <v>22181.0</v>
+      </c>
+      <c r="AI220" t="n" s="8">
+        <v>22428.0</v>
+      </c>
+      <c r="AJ220"/>
     </row>
     <row r="221">
       <c r="A221" t="s" s="7">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B221" t="n" s="10">
         <v>3.7</v>
@@ -22548,10 +24736,20 @@
       <c r="AF221" t="n" s="10">
         <v>5.8</v>
       </c>
+      <c r="AG221" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AH221" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI221" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ221"/>
     </row>
     <row r="222">
       <c r="A222" t="s" s="7">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B222" t="n" s="8">
         <v>1829.0</v>
@@ -22646,10 +24844,20 @@
       <c r="AF222" t="n" s="8">
         <v>2898.0</v>
       </c>
+      <c r="AG222" t="n" s="8">
+        <v>1881.0</v>
+      </c>
+      <c r="AH222" t="n" s="8">
+        <v>1415.0</v>
+      </c>
+      <c r="AI222" t="n" s="8">
+        <v>1543.0</v>
+      </c>
+      <c r="AJ222"/>
     </row>
     <row r="223">
       <c r="A223" t="s" s="7">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B223" t="n" s="8">
         <v>47209.0</v>
@@ -22744,10 +24952,20 @@
       <c r="AF223" t="n" s="8">
         <v>46779.0</v>
       </c>
+      <c r="AG223" t="n" s="8">
+        <v>47684.0</v>
+      </c>
+      <c r="AH223" t="n" s="8">
+        <v>48089.0</v>
+      </c>
+      <c r="AI223" t="n" s="8">
+        <v>47801.0</v>
+      </c>
+      <c r="AJ223"/>
     </row>
     <row r="224">
       <c r="A224" t="s" s="7">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B224" t="n" s="8">
         <v>49038.0</v>
@@ -22842,10 +25060,20 @@
       <c r="AF224" t="n" s="8">
         <v>49677.0</v>
       </c>
+      <c r="AG224" t="n" s="8">
+        <v>49565.0</v>
+      </c>
+      <c r="AH224" t="n" s="8">
+        <v>49504.0</v>
+      </c>
+      <c r="AI224" t="n" s="8">
+        <v>49344.0</v>
+      </c>
+      <c r="AJ224"/>
     </row>
     <row r="225">
       <c r="A225" t="s" s="7">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B225" t="n" s="10">
         <v>3.7</v>
@@ -22940,10 +25168,20 @@
       <c r="AF225" t="n" s="10">
         <v>7.7</v>
       </c>
+      <c r="AG225" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AH225" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI225" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ225"/>
     </row>
     <row r="226">
       <c r="A226" t="s" s="7">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B226" t="n" s="8">
         <v>3100.0</v>
@@ -23038,10 +25276,20 @@
       <c r="AF226" t="n" s="8">
         <v>6762.0</v>
       </c>
+      <c r="AG226" t="n" s="8">
+        <v>4112.0</v>
+      </c>
+      <c r="AH226" t="n" s="8">
+        <v>2819.0</v>
+      </c>
+      <c r="AI226" t="n" s="8">
+        <v>3054.0</v>
+      </c>
+      <c r="AJ226"/>
     </row>
     <row r="227">
       <c r="A227" t="s" s="7">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B227" t="n" s="8">
         <v>81564.0</v>
@@ -23136,10 +25384,20 @@
       <c r="AF227" t="n" s="8">
         <v>80952.0</v>
       </c>
+      <c r="AG227" t="n" s="8">
+        <v>82863.0</v>
+      </c>
+      <c r="AH227" t="n" s="8">
+        <v>84618.0</v>
+      </c>
+      <c r="AI227" t="n" s="8">
+        <v>85552.0</v>
+      </c>
+      <c r="AJ227"/>
     </row>
     <row r="228">
       <c r="A228" t="s" s="7">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B228" t="n" s="8">
         <v>84664.0</v>
@@ -23234,10 +25492,20 @@
       <c r="AF228" t="n" s="8">
         <v>87714.0</v>
       </c>
+      <c r="AG228" t="n" s="8">
+        <v>86975.0</v>
+      </c>
+      <c r="AH228" t="n" s="8">
+        <v>87437.0</v>
+      </c>
+      <c r="AI228" t="n" s="8">
+        <v>88606.0</v>
+      </c>
+      <c r="AJ228"/>
     </row>
     <row r="229">
       <c r="A229" t="s" s="7">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B229" t="n" s="10">
         <v>5.8</v>
@@ -23332,10 +25600,20 @@
       <c r="AF229" t="n" s="10">
         <v>8.1</v>
       </c>
+      <c r="AG229" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AH229" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI229" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ229"/>
     </row>
     <row r="230">
       <c r="A230" t="s" s="7">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B230" t="n" s="8">
         <v>1795.0</v>
@@ -23430,10 +25708,20 @@
       <c r="AF230" t="n" s="8">
         <v>2564.0</v>
       </c>
+      <c r="AG230" t="n" s="8">
+        <v>1549.0</v>
+      </c>
+      <c r="AH230" t="n" s="8">
+        <v>1097.0</v>
+      </c>
+      <c r="AI230" t="n" s="8">
+        <v>1159.0</v>
+      </c>
+      <c r="AJ230"/>
     </row>
     <row r="231">
       <c r="A231" t="s" s="7">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B231" t="n" s="8">
         <v>29139.0</v>
@@ -23528,10 +25816,20 @@
       <c r="AF231" t="n" s="8">
         <v>28911.0</v>
       </c>
+      <c r="AG231" t="n" s="8">
+        <v>29625.0</v>
+      </c>
+      <c r="AH231" t="n" s="8">
+        <v>29981.0</v>
+      </c>
+      <c r="AI231" t="n" s="8">
+        <v>30304.0</v>
+      </c>
+      <c r="AJ231"/>
     </row>
     <row r="232">
       <c r="A232" t="s" s="7">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B232" t="n" s="8">
         <v>30934.0</v>
@@ -23626,10 +25924,20 @@
       <c r="AF232" t="n" s="8">
         <v>31475.0</v>
       </c>
+      <c r="AG232" t="n" s="8">
+        <v>31174.0</v>
+      </c>
+      <c r="AH232" t="n" s="8">
+        <v>31078.0</v>
+      </c>
+      <c r="AI232" t="n" s="8">
+        <v>31463.0</v>
+      </c>
+      <c r="AJ232"/>
     </row>
     <row r="233">
       <c r="A233" t="s" s="7">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B233" t="n" s="10">
         <v>5.4</v>
@@ -23724,10 +26032,20 @@
       <c r="AF233" t="n" s="10">
         <v>6.9</v>
       </c>
+      <c r="AG233" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AH233" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI233" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ233"/>
     </row>
     <row r="234">
       <c r="A234" t="s" s="7">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B234" t="n" s="8">
         <v>1535.0</v>
@@ -23822,10 +26140,20 @@
       <c r="AF234" t="n" s="8">
         <v>1920.0</v>
       </c>
+      <c r="AG234" t="n" s="8">
+        <v>1283.0</v>
+      </c>
+      <c r="AH234" t="n" s="8">
+        <v>907.0</v>
+      </c>
+      <c r="AI234" t="n" s="8">
+        <v>941.0</v>
+      </c>
+      <c r="AJ234"/>
     </row>
     <row r="235">
       <c r="A235" t="s" s="7">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B235" t="n" s="8">
         <v>27079.0</v>
@@ -23920,10 +26248,20 @@
       <c r="AF235" t="n" s="8">
         <v>25748.0</v>
       </c>
+      <c r="AG235" t="n" s="8">
+        <v>26234.0</v>
+      </c>
+      <c r="AH235" t="n" s="8">
+        <v>26460.0</v>
+      </c>
+      <c r="AI235" t="n" s="8">
+        <v>26747.0</v>
+      </c>
+      <c r="AJ235"/>
     </row>
     <row r="236">
       <c r="A236" t="s" s="7">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B236" t="n" s="8">
         <v>28614.0</v>
@@ -24018,10 +26356,20 @@
       <c r="AF236" t="n" s="8">
         <v>27668.0</v>
       </c>
+      <c r="AG236" t="n" s="8">
+        <v>27517.0</v>
+      </c>
+      <c r="AH236" t="n" s="8">
+        <v>27367.0</v>
+      </c>
+      <c r="AI236" t="n" s="8">
+        <v>27688.0</v>
+      </c>
+      <c r="AJ236"/>
     </row>
     <row r="237">
       <c r="A237" t="s" s="7">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B237" t="n" s="10">
         <v>4.8</v>
@@ -24116,10 +26464,20 @@
       <c r="AF237" t="n" s="10">
         <v>7.1</v>
       </c>
+      <c r="AG237" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH237" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI237" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ237"/>
     </row>
     <row r="238">
       <c r="A238" t="s" s="7">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B238" t="n" s="8">
         <v>2213.0</v>
@@ -24214,10 +26572,20 @@
       <c r="AF238" t="n" s="8">
         <v>3116.0</v>
       </c>
+      <c r="AG238" t="n" s="8">
+        <v>1958.0</v>
+      </c>
+      <c r="AH238" t="n" s="8">
+        <v>1417.0</v>
+      </c>
+      <c r="AI238" t="n" s="8">
+        <v>1466.0</v>
+      </c>
+      <c r="AJ238"/>
     </row>
     <row r="239">
       <c r="A239" t="s" s="7">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B239" t="n" s="8">
         <v>44019.0</v>
@@ -24312,10 +26680,20 @@
       <c r="AF239" t="n" s="8">
         <v>40589.0</v>
       </c>
+      <c r="AG239" t="n" s="8">
+        <v>41147.0</v>
+      </c>
+      <c r="AH239" t="n" s="8">
+        <v>41886.0</v>
+      </c>
+      <c r="AI239" t="n" s="8">
+        <v>42145.0</v>
+      </c>
+      <c r="AJ239"/>
     </row>
     <row r="240">
       <c r="A240" t="s" s="7">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B240" t="n" s="8">
         <v>46232.0</v>
@@ -24410,10 +26788,20 @@
       <c r="AF240" t="n" s="8">
         <v>43705.0</v>
       </c>
+      <c r="AG240" t="n" s="8">
+        <v>43105.0</v>
+      </c>
+      <c r="AH240" t="n" s="8">
+        <v>43303.0</v>
+      </c>
+      <c r="AI240" t="n" s="8">
+        <v>43611.0</v>
+      </c>
+      <c r="AJ240"/>
     </row>
     <row r="241">
       <c r="A241" t="s" s="7">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B241" t="n" s="10">
         <v>3.5</v>
@@ -24508,10 +26896,20 @@
       <c r="AF241" t="n" s="10">
         <v>8.0</v>
       </c>
+      <c r="AG241" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH241" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI241" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ241"/>
     </row>
     <row r="242">
       <c r="A242" t="s" s="7">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B242" t="n" s="8">
         <v>16724.0</v>
@@ -24606,10 +27004,20 @@
       <c r="AF242" t="n" s="8">
         <v>39120.0</v>
       </c>
+      <c r="AG242" t="n" s="8">
+        <v>23554.0</v>
+      </c>
+      <c r="AH242" t="n" s="8">
+        <v>15810.0</v>
+      </c>
+      <c r="AI242" t="n" s="8">
+        <v>17012.0</v>
+      </c>
+      <c r="AJ242"/>
     </row>
     <row r="243">
       <c r="A243" t="s" s="7">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B243" t="n" s="8">
         <v>456072.0</v>
@@ -24704,10 +27112,20 @@
       <c r="AF243" t="n" s="8">
         <v>448279.0</v>
       </c>
+      <c r="AG243" t="n" s="8">
+        <v>462281.0</v>
+      </c>
+      <c r="AH243" t="n" s="8">
+        <v>480605.0</v>
+      </c>
+      <c r="AI243" t="n" s="8">
+        <v>487720.0</v>
+      </c>
+      <c r="AJ243"/>
     </row>
     <row r="244">
       <c r="A244" t="s" s="7">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B244" t="n" s="8">
         <v>472796.0</v>
@@ -24802,10 +27220,20 @@
       <c r="AF244" t="n" s="8">
         <v>487399.0</v>
       </c>
+      <c r="AG244" t="n" s="8">
+        <v>485835.0</v>
+      </c>
+      <c r="AH244" t="n" s="8">
+        <v>496415.0</v>
+      </c>
+      <c r="AI244" t="n" s="8">
+        <v>504732.0</v>
+      </c>
+      <c r="AJ244"/>
     </row>
     <row r="245">
       <c r="A245" t="s" s="7">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B245" t="n" s="10">
         <v>5.8</v>
@@ -24900,10 +27328,20 @@
       <c r="AF245" t="n" s="10">
         <v>7.2</v>
       </c>
+      <c r="AG245" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH245" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI245" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AJ245"/>
     </row>
     <row r="246">
       <c r="A246" t="s" s="7">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B246" t="n" s="8">
         <v>1151.0</v>
@@ -24998,10 +27436,20 @@
       <c r="AF246" t="n" s="8">
         <v>1320.0</v>
       </c>
+      <c r="AG246" t="n" s="8">
+        <v>822.0</v>
+      </c>
+      <c r="AH246" t="n" s="8">
+        <v>623.0</v>
+      </c>
+      <c r="AI246" t="n" s="8">
+        <v>677.0</v>
+      </c>
+      <c r="AJ246"/>
     </row>
     <row r="247">
       <c r="A247" t="s" s="7">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B247" t="n" s="8">
         <v>18661.0</v>
@@ -25096,10 +27544,20 @@
       <c r="AF247" t="n" s="8">
         <v>16919.0</v>
       </c>
+      <c r="AG247" t="n" s="8">
+        <v>17155.0</v>
+      </c>
+      <c r="AH247" t="n" s="8">
+        <v>16796.0</v>
+      </c>
+      <c r="AI247" t="n" s="8">
+        <v>16576.0</v>
+      </c>
+      <c r="AJ247"/>
     </row>
     <row r="248">
       <c r="A248" t="s" s="7">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B248" t="n" s="8">
         <v>19812.0</v>
@@ -25194,10 +27652,20 @@
       <c r="AF248" t="n" s="8">
         <v>18239.0</v>
       </c>
+      <c r="AG248" t="n" s="8">
+        <v>17977.0</v>
+      </c>
+      <c r="AH248" t="n" s="8">
+        <v>17419.0</v>
+      </c>
+      <c r="AI248" t="n" s="8">
+        <v>17253.0</v>
+      </c>
+      <c r="AJ248"/>
     </row>
     <row r="249">
       <c r="A249" t="s" s="7">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B249" t="n" s="10">
         <v>5.1</v>
@@ -25292,10 +27760,20 @@
       <c r="AF249" t="n" s="10">
         <v>6.3</v>
       </c>
+      <c r="AG249" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AH249" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI249" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ249"/>
     </row>
     <row r="250">
       <c r="A250" t="s" s="7">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B250" t="n" s="8">
         <v>568.0</v>
@@ -25390,10 +27868,20 @@
       <c r="AF250" t="n" s="8">
         <v>741.0</v>
       </c>
+      <c r="AG250" t="n" s="8">
+        <v>452.0</v>
+      </c>
+      <c r="AH250" t="n" s="8">
+        <v>349.0</v>
+      </c>
+      <c r="AI250" t="n" s="8">
+        <v>370.0</v>
+      </c>
+      <c r="AJ250"/>
     </row>
     <row r="251">
       <c r="A251" t="s" s="7">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B251" t="n" s="8">
         <v>10463.0</v>
@@ -25488,10 +27976,20 @@
       <c r="AF251" t="n" s="8">
         <v>11073.0</v>
       </c>
+      <c r="AG251" t="n" s="8">
+        <v>11148.0</v>
+      </c>
+      <c r="AH251" t="n" s="8">
+        <v>11270.0</v>
+      </c>
+      <c r="AI251" t="n" s="8">
+        <v>11349.0</v>
+      </c>
+      <c r="AJ251"/>
     </row>
     <row r="252">
       <c r="A252" t="s" s="7">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B252" t="n" s="8">
         <v>11031.0</v>
@@ -25586,6 +28084,16 @@
       <c r="AF252" t="n" s="8">
         <v>11814.0</v>
       </c>
+      <c r="AG252" t="n" s="8">
+        <v>11600.0</v>
+      </c>
+      <c r="AH252" t="n" s="8">
+        <v>11619.0</v>
+      </c>
+      <c r="AI252" t="n" s="8">
+        <v>11719.0</v>
+      </c>
+      <c r="AJ252"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -25596,7 +28104,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 27, 2024 (01:48:36 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 5, 2025 (02:56:16 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
